--- a/output/furlote01.xlsx
+++ b/output/furlote01.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="72">
   <si>
     <t>Season</t>
   </si>
@@ -170,12 +170,6 @@
   </si>
   <si>
     <t>PS</t>
-  </si>
-  <si>
-    <t>ORtg</t>
-  </si>
-  <si>
-    <t>DRtg</t>
   </si>
   <si>
     <t>PER</t>
@@ -2865,4521 +2859,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE30"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:31">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2">
-        <v>32</v>
-      </c>
-      <c r="I2">
-        <v>174</v>
-      </c>
-      <c r="J2">
-        <v>7</v>
-      </c>
-      <c r="K2">
-        <v>20.7</v>
-      </c>
-      <c r="L2">
-        <v>0.34</v>
-      </c>
-      <c r="P2">
-        <v>7</v>
-      </c>
-      <c r="Q2">
-        <v>20.7</v>
-      </c>
-      <c r="R2">
-        <v>0.34</v>
-      </c>
-      <c r="S2">
-        <v>3.3</v>
-      </c>
-      <c r="T2">
-        <v>3.7</v>
-      </c>
-      <c r="U2">
-        <v>0.889</v>
-      </c>
-      <c r="V2">
-        <v>3.7</v>
-      </c>
-      <c r="W2">
-        <v>4.3</v>
-      </c>
-      <c r="X2">
-        <v>8.1</v>
-      </c>
-      <c r="Y2">
-        <v>3.9</v>
-      </c>
-      <c r="Z2">
-        <v>1.4</v>
-      </c>
-      <c r="AA2">
-        <v>0.4</v>
-      </c>
-      <c r="AC2">
-        <v>2.3</v>
-      </c>
-      <c r="AD2">
-        <v>17.4</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="I3">
-        <v>16</v>
-      </c>
-      <c r="J3">
-        <v>13.5</v>
-      </c>
-      <c r="K3">
-        <v>24.8</v>
-      </c>
-      <c r="L3">
-        <v>0.545</v>
-      </c>
-      <c r="P3">
-        <v>13.5</v>
-      </c>
-      <c r="Q3">
-        <v>24.8</v>
-      </c>
-      <c r="R3">
-        <v>0.545</v>
-      </c>
-      <c r="S3">
-        <v>9</v>
-      </c>
-      <c r="T3">
-        <v>9</v>
-      </c>
-      <c r="U3">
-        <v>1</v>
-      </c>
-      <c r="V3">
-        <v>6.8</v>
-      </c>
-      <c r="W3">
-        <v>4.5</v>
-      </c>
-      <c r="X3">
-        <v>11.3</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>2.3</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>4.5</v>
-      </c>
-      <c r="AD3">
-        <v>36</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>-158</v>
-      </c>
-      <c r="J4">
-        <v>6.5</v>
-      </c>
-      <c r="K4">
-        <v>4.100000000000001</v>
-      </c>
-      <c r="L4">
-        <v>0.205</v>
-      </c>
-      <c r="P4">
-        <v>6.5</v>
-      </c>
-      <c r="Q4">
-        <v>4.100000000000001</v>
-      </c>
-      <c r="R4">
-        <v>0.205</v>
-      </c>
-      <c r="S4">
-        <v>5.7</v>
-      </c>
-      <c r="T4">
-        <v>5.3</v>
-      </c>
-      <c r="U4">
-        <v>0.111</v>
-      </c>
-      <c r="V4">
-        <v>3.1</v>
-      </c>
-      <c r="W4">
-        <v>0.2000000000000002</v>
-      </c>
-      <c r="X4">
-        <v>3.200000000000001</v>
-      </c>
-      <c r="Y4">
-        <v>-3.9</v>
-      </c>
-      <c r="Z4">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA4">
-        <v>-0.4</v>
-      </c>
-      <c r="AC4">
-        <v>2.2</v>
-      </c>
-      <c r="AD4">
-        <v>18.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5">
-        <v>53</v>
-      </c>
-      <c r="I5">
-        <v>827</v>
-      </c>
-      <c r="J5">
-        <v>8.4</v>
-      </c>
-      <c r="K5">
-        <v>19.3</v>
-      </c>
-      <c r="L5">
-        <v>0.433</v>
-      </c>
-      <c r="P5">
-        <v>8.4</v>
-      </c>
-      <c r="Q5">
-        <v>19.3</v>
-      </c>
-      <c r="R5">
-        <v>0.433</v>
-      </c>
-      <c r="S5">
-        <v>3.8</v>
-      </c>
-      <c r="T5">
-        <v>4.3</v>
-      </c>
-      <c r="U5">
-        <v>0.889</v>
-      </c>
-      <c r="V5">
-        <v>2</v>
-      </c>
-      <c r="W5">
-        <v>2.6</v>
-      </c>
-      <c r="X5">
-        <v>4.7</v>
-      </c>
-      <c r="Y5">
-        <v>3.1</v>
-      </c>
-      <c r="Z5">
-        <v>0.9</v>
-      </c>
-      <c r="AA5">
-        <v>0.6</v>
-      </c>
-      <c r="AB5">
-        <v>3.4</v>
-      </c>
-      <c r="AC5">
-        <v>2.9</v>
-      </c>
-      <c r="AD5">
-        <v>20.5</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="I6">
-        <v>50</v>
-      </c>
-      <c r="J6">
-        <v>9.4</v>
-      </c>
-      <c r="K6">
-        <v>19.4</v>
-      </c>
-      <c r="L6">
-        <v>0.481</v>
-      </c>
-      <c r="P6">
-        <v>9.4</v>
-      </c>
-      <c r="Q6">
-        <v>19.4</v>
-      </c>
-      <c r="R6">
-        <v>0.481</v>
-      </c>
-      <c r="S6">
-        <v>4.3</v>
-      </c>
-      <c r="T6">
-        <v>4.3</v>
-      </c>
-      <c r="U6">
-        <v>1</v>
-      </c>
-      <c r="V6">
-        <v>2.2</v>
-      </c>
-      <c r="W6">
-        <v>1.4</v>
-      </c>
-      <c r="X6">
-        <v>3.6</v>
-      </c>
-      <c r="Y6">
-        <v>3.6</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>2.2</v>
-      </c>
-      <c r="AC6">
-        <v>0.7</v>
-      </c>
-      <c r="AD6">
-        <v>23</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="I7">
-        <v>-777</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>0.09999999999999787</v>
-      </c>
-      <c r="L7">
-        <v>0.04800000000000004</v>
-      </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="Q7">
-        <v>0.09999999999999787</v>
-      </c>
-      <c r="R7">
-        <v>0.04800000000000004</v>
-      </c>
-      <c r="S7">
-        <v>0.5</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0.111</v>
-      </c>
-      <c r="V7">
-        <v>0.2000000000000002</v>
-      </c>
-      <c r="W7">
-        <v>-1.2</v>
-      </c>
-      <c r="X7">
-        <v>-1.1</v>
-      </c>
-      <c r="Y7">
-        <v>0.5</v>
-      </c>
-      <c r="Z7">
-        <v>-0.9</v>
-      </c>
-      <c r="AA7">
-        <v>-0.6</v>
-      </c>
-      <c r="AB7">
-        <v>-1.2</v>
-      </c>
-      <c r="AC7">
-        <v>-2.2</v>
-      </c>
-      <c r="AD7">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8">
-        <v>78</v>
-      </c>
-      <c r="I8">
-        <v>1686</v>
-      </c>
-      <c r="J8">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="K8">
-        <v>17.2</v>
-      </c>
-      <c r="L8">
-        <v>0.483</v>
-      </c>
-      <c r="P8">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="Q8">
-        <v>17.2</v>
-      </c>
-      <c r="R8">
-        <v>0.483</v>
-      </c>
-      <c r="S8">
-        <v>3.5</v>
-      </c>
-      <c r="T8">
-        <v>4.2</v>
-      </c>
-      <c r="U8">
-        <v>0.836</v>
-      </c>
-      <c r="V8">
-        <v>1.6</v>
-      </c>
-      <c r="W8">
-        <v>1.9</v>
-      </c>
-      <c r="X8">
-        <v>3.6</v>
-      </c>
-      <c r="Y8">
-        <v>3.9</v>
-      </c>
-      <c r="Z8">
-        <v>1.2</v>
-      </c>
-      <c r="AA8">
-        <v>0.6</v>
-      </c>
-      <c r="AB8">
-        <v>2.9</v>
-      </c>
-      <c r="AC8">
-        <v>2.6</v>
-      </c>
-      <c r="AD8">
-        <v>20</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9">
-        <v>49</v>
-      </c>
-      <c r="I9">
-        <v>1110</v>
-      </c>
-      <c r="J9">
-        <v>8.9</v>
-      </c>
-      <c r="K9">
-        <v>18.5</v>
-      </c>
-      <c r="L9">
-        <v>0.483</v>
-      </c>
-      <c r="P9">
-        <v>8.9</v>
-      </c>
-      <c r="Q9">
-        <v>18.5</v>
-      </c>
-      <c r="R9">
-        <v>0.483</v>
-      </c>
-      <c r="S9">
-        <v>3.3</v>
-      </c>
-      <c r="T9">
-        <v>4.1</v>
-      </c>
-      <c r="U9">
-        <v>0.8240000000000001</v>
-      </c>
-      <c r="V9">
-        <v>1.4</v>
-      </c>
-      <c r="W9">
-        <v>1.7</v>
-      </c>
-      <c r="X9">
-        <v>3.1</v>
-      </c>
-      <c r="Y9">
-        <v>3.3</v>
-      </c>
-      <c r="Z9">
-        <v>1.3</v>
-      </c>
-      <c r="AA9">
-        <v>0.6</v>
-      </c>
-      <c r="AB9">
-        <v>2.8</v>
-      </c>
-      <c r="AC9">
-        <v>2.6</v>
-      </c>
-      <c r="AD9">
-        <v>21.2</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10">
-        <v>29</v>
-      </c>
-      <c r="I10">
-        <v>576</v>
-      </c>
-      <c r="J10">
-        <v>7.1</v>
-      </c>
-      <c r="K10">
-        <v>14.7</v>
-      </c>
-      <c r="L10">
-        <v>0.481</v>
-      </c>
-      <c r="P10">
-        <v>7.1</v>
-      </c>
-      <c r="Q10">
-        <v>14.7</v>
-      </c>
-      <c r="R10">
-        <v>0.481</v>
-      </c>
-      <c r="S10">
-        <v>3.7</v>
-      </c>
-      <c r="T10">
-        <v>4.4</v>
-      </c>
-      <c r="U10">
-        <v>0.857</v>
-      </c>
-      <c r="V10">
-        <v>2</v>
-      </c>
-      <c r="W10">
-        <v>2.4</v>
-      </c>
-      <c r="X10">
-        <v>4.4</v>
-      </c>
-      <c r="Y10">
-        <v>5.1</v>
-      </c>
-      <c r="Z10">
-        <v>1.1</v>
-      </c>
-      <c r="AA10">
-        <v>0.8</v>
-      </c>
-      <c r="AB10">
-        <v>2.9</v>
-      </c>
-      <c r="AC10">
-        <v>2.6</v>
-      </c>
-      <c r="AD10">
-        <v>17.9</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11">
-        <v>9</v>
-      </c>
-      <c r="I11">
-        <v>244</v>
-      </c>
-      <c r="J11">
-        <v>8.1</v>
-      </c>
-      <c r="K11">
-        <v>16.7</v>
-      </c>
-      <c r="L11">
-        <v>0.487</v>
-      </c>
-      <c r="P11">
-        <v>8.1</v>
-      </c>
-      <c r="Q11">
-        <v>16.7</v>
-      </c>
-      <c r="R11">
-        <v>0.487</v>
-      </c>
-      <c r="S11">
-        <v>3.8</v>
-      </c>
-      <c r="T11">
-        <v>4.1</v>
-      </c>
-      <c r="U11">
-        <v>0.929</v>
-      </c>
-      <c r="V11">
-        <v>1.6</v>
-      </c>
-      <c r="W11">
-        <v>3.1</v>
-      </c>
-      <c r="X11">
-        <v>4.7</v>
-      </c>
-      <c r="Y11">
-        <v>4.3</v>
-      </c>
-      <c r="Z11">
-        <v>1</v>
-      </c>
-      <c r="AA11">
-        <v>0.3</v>
-      </c>
-      <c r="AB11">
-        <v>1.8</v>
-      </c>
-      <c r="AC11">
-        <v>2.2</v>
-      </c>
-      <c r="AD11">
-        <v>20.1</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="I12">
-        <v>-1442</v>
-      </c>
-      <c r="J12">
-        <v>-0.2000000000000011</v>
-      </c>
-      <c r="K12">
-        <v>-0.5</v>
-      </c>
-      <c r="L12">
-        <v>0.004000000000000059</v>
-      </c>
-      <c r="P12">
-        <v>-0.2000000000000011</v>
-      </c>
-      <c r="Q12">
-        <v>-0.5</v>
-      </c>
-      <c r="R12">
-        <v>0.004000000000000059</v>
-      </c>
-      <c r="S12">
-        <v>0.2999999999999998</v>
-      </c>
-      <c r="T12">
-        <v>-0.1000000000000005</v>
-      </c>
-      <c r="U12">
-        <v>0.09300000000000008</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>1.2</v>
-      </c>
-      <c r="X12">
-        <v>1.1</v>
-      </c>
-      <c r="Y12">
-        <v>0.3999999999999999</v>
-      </c>
-      <c r="Z12">
-        <v>-0.2</v>
-      </c>
-      <c r="AA12">
-        <v>-0.3</v>
-      </c>
-      <c r="AB12">
-        <v>-1.1</v>
-      </c>
-      <c r="AC12">
-        <v>-0.3999999999999999</v>
-      </c>
-      <c r="AD12">
-        <v>0.1000000000000014</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13">
-        <v>76</v>
-      </c>
-      <c r="I13">
-        <v>2122</v>
-      </c>
-      <c r="J13">
-        <v>7.3</v>
-      </c>
-      <c r="K13">
-        <v>15.7</v>
-      </c>
-      <c r="L13">
-        <v>0.464</v>
-      </c>
-      <c r="M13">
-        <v>0.4</v>
-      </c>
-      <c r="N13">
-        <v>1.4</v>
-      </c>
-      <c r="O13">
-        <v>0.293</v>
-      </c>
-      <c r="P13">
-        <v>6.9</v>
-      </c>
-      <c r="Q13">
-        <v>14.3</v>
-      </c>
-      <c r="R13">
-        <v>0.481</v>
-      </c>
-      <c r="S13">
-        <v>2.9</v>
-      </c>
-      <c r="T13">
-        <v>3.3</v>
-      </c>
-      <c r="U13">
-        <v>0.872</v>
-      </c>
-      <c r="V13">
-        <v>1.2</v>
-      </c>
-      <c r="W13">
-        <v>2.1</v>
-      </c>
-      <c r="X13">
-        <v>3.3</v>
-      </c>
-      <c r="Y13">
-        <v>5</v>
-      </c>
-      <c r="Z13">
-        <v>1.2</v>
-      </c>
-      <c r="AA13">
-        <v>0.4</v>
-      </c>
-      <c r="AB13">
-        <v>2.8</v>
-      </c>
-      <c r="AC13">
-        <v>1.7</v>
-      </c>
-      <c r="AD13">
-        <v>17.9</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14">
-        <v>21</v>
-      </c>
-      <c r="I14">
-        <v>404</v>
-      </c>
-      <c r="J14">
-        <v>5.9</v>
-      </c>
-      <c r="K14">
-        <v>14.3</v>
-      </c>
-      <c r="L14">
-        <v>0.41</v>
-      </c>
-      <c r="M14">
-        <v>0.1</v>
-      </c>
-      <c r="N14">
-        <v>0.8</v>
-      </c>
-      <c r="O14">
-        <v>0.111</v>
-      </c>
-      <c r="P14">
-        <v>5.8</v>
-      </c>
-      <c r="Q14">
-        <v>13.5</v>
-      </c>
-      <c r="R14">
-        <v>0.428</v>
-      </c>
-      <c r="S14">
-        <v>3.9</v>
-      </c>
-      <c r="T14">
-        <v>4.5</v>
-      </c>
-      <c r="U14">
-        <v>0.863</v>
-      </c>
-      <c r="V14">
-        <v>2</v>
-      </c>
-      <c r="W14">
-        <v>1.7</v>
-      </c>
-      <c r="X14">
-        <v>3.7</v>
-      </c>
-      <c r="Y14">
-        <v>6.4</v>
-      </c>
-      <c r="Z14">
-        <v>1.7</v>
-      </c>
-      <c r="AA14">
-        <v>0.8</v>
-      </c>
-      <c r="AB14">
-        <v>3</v>
-      </c>
-      <c r="AC14">
-        <v>1.7</v>
-      </c>
-      <c r="AD14">
-        <v>15.8</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15">
-        <v>55</v>
-      </c>
-      <c r="I15">
-        <v>1718</v>
-      </c>
-      <c r="J15">
-        <v>7.6</v>
-      </c>
-      <c r="K15">
-        <v>16</v>
-      </c>
-      <c r="L15">
-        <v>0.476</v>
-      </c>
-      <c r="M15">
-        <v>0.5</v>
-      </c>
-      <c r="N15">
-        <v>1.5</v>
-      </c>
-      <c r="O15">
-        <v>0.315</v>
-      </c>
-      <c r="P15">
-        <v>7.1</v>
-      </c>
-      <c r="Q15">
-        <v>14.5</v>
-      </c>
-      <c r="R15">
-        <v>0.493</v>
-      </c>
-      <c r="S15">
-        <v>2.7</v>
-      </c>
-      <c r="T15">
-        <v>3</v>
-      </c>
-      <c r="U15">
-        <v>0.8759999999999999</v>
-      </c>
-      <c r="V15">
-        <v>1</v>
-      </c>
-      <c r="W15">
-        <v>2.2</v>
-      </c>
-      <c r="X15">
-        <v>3.2</v>
-      </c>
-      <c r="Y15">
-        <v>4.6</v>
-      </c>
-      <c r="Z15">
-        <v>1.1</v>
-      </c>
-      <c r="AA15">
-        <v>0.3</v>
-      </c>
-      <c r="AB15">
-        <v>2.7</v>
-      </c>
-      <c r="AC15">
-        <v>1.7</v>
-      </c>
-      <c r="AD15">
-        <v>18.4</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17">
-        <v>50</v>
-      </c>
-      <c r="I17">
-        <v>980</v>
-      </c>
-      <c r="J17">
-        <v>6.6</v>
-      </c>
-      <c r="K17">
-        <v>14.5</v>
-      </c>
-      <c r="L17">
-        <v>0.452</v>
-      </c>
-      <c r="M17">
-        <v>0.1</v>
-      </c>
-      <c r="N17">
-        <v>0.8</v>
-      </c>
-      <c r="O17">
-        <v>0.111</v>
-      </c>
-      <c r="P17">
-        <v>6.5</v>
-      </c>
-      <c r="Q17">
-        <v>14.2</v>
-      </c>
-      <c r="R17">
-        <v>0.46</v>
-      </c>
-      <c r="S17">
-        <v>3.8</v>
-      </c>
-      <c r="T17">
-        <v>4.4</v>
-      </c>
-      <c r="U17">
-        <v>0.86</v>
-      </c>
-      <c r="V17">
-        <v>2</v>
-      </c>
-      <c r="W17">
-        <v>2.1</v>
-      </c>
-      <c r="X17">
-        <v>4.2</v>
-      </c>
-      <c r="Y17">
-        <v>5.6</v>
-      </c>
-      <c r="Z17">
-        <v>1.4</v>
-      </c>
-      <c r="AA17">
-        <v>0.8</v>
-      </c>
-      <c r="AB17">
-        <v>3</v>
-      </c>
-      <c r="AC17">
-        <v>2.2</v>
-      </c>
-      <c r="AD17">
-        <v>17</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" t="s">
-        <v>47</v>
-      </c>
-      <c r="G18">
-        <v>9</v>
-      </c>
-      <c r="I18">
-        <v>244</v>
-      </c>
-      <c r="J18">
-        <v>8.1</v>
-      </c>
-      <c r="K18">
-        <v>16.7</v>
-      </c>
-      <c r="L18">
-        <v>0.487</v>
-      </c>
-      <c r="P18">
-        <v>8.1</v>
-      </c>
-      <c r="Q18">
-        <v>16.7</v>
-      </c>
-      <c r="R18">
-        <v>0.487</v>
-      </c>
-      <c r="S18">
-        <v>3.8</v>
-      </c>
-      <c r="T18">
-        <v>4.1</v>
-      </c>
-      <c r="U18">
-        <v>0.929</v>
-      </c>
-      <c r="V18">
-        <v>1.6</v>
-      </c>
-      <c r="W18">
-        <v>3.1</v>
-      </c>
-      <c r="X18">
-        <v>4.7</v>
-      </c>
-      <c r="Y18">
-        <v>4.3</v>
-      </c>
-      <c r="Z18">
-        <v>1</v>
-      </c>
-      <c r="AA18">
-        <v>0.3</v>
-      </c>
-      <c r="AB18">
-        <v>1.8</v>
-      </c>
-      <c r="AC18">
-        <v>2.2</v>
-      </c>
-      <c r="AD18">
-        <v>20.1</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="I19">
-        <v>-736</v>
-      </c>
-      <c r="J19">
-        <v>1.5</v>
-      </c>
-      <c r="K19">
-        <v>2.199999999999999</v>
-      </c>
-      <c r="L19">
-        <v>0.03500000000000003</v>
-      </c>
-      <c r="P19">
-        <v>1.6</v>
-      </c>
-      <c r="Q19">
-        <v>2.5</v>
-      </c>
-      <c r="R19">
-        <v>0.02700000000000002</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="U19">
-        <v>0.06900000000000006</v>
-      </c>
-      <c r="V19">
-        <v>-0.3999999999999999</v>
-      </c>
-      <c r="W19">
-        <v>1</v>
-      </c>
-      <c r="X19">
-        <v>0.5</v>
-      </c>
-      <c r="Y19">
-        <v>-1.3</v>
-      </c>
-      <c r="Z19">
-        <v>-0.3999999999999999</v>
-      </c>
-      <c r="AA19">
-        <v>-0.5</v>
-      </c>
-      <c r="AB19">
-        <v>-1.2</v>
-      </c>
-      <c r="AC19">
-        <v>0</v>
-      </c>
-      <c r="AD19">
-        <v>3.100000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20">
-        <v>102</v>
-      </c>
-      <c r="I20">
-        <v>1937</v>
-      </c>
-      <c r="J20">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="K20">
-        <v>18.8</v>
-      </c>
-      <c r="L20">
-        <v>0.461</v>
-      </c>
-      <c r="P20">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="Q20">
-        <v>18.8</v>
-      </c>
-      <c r="R20">
-        <v>0.461</v>
-      </c>
-      <c r="S20">
-        <v>3.5</v>
-      </c>
-      <c r="T20">
-        <v>4.2</v>
-      </c>
-      <c r="U20">
-        <v>0.853</v>
-      </c>
-      <c r="V20">
-        <v>1.7</v>
-      </c>
-      <c r="W20">
-        <v>2.1</v>
-      </c>
-      <c r="X20">
-        <v>3.8</v>
-      </c>
-      <c r="Y20">
-        <v>3.3</v>
-      </c>
-      <c r="Z20">
-        <v>1.1</v>
-      </c>
-      <c r="AA20">
-        <v>0.6</v>
-      </c>
-      <c r="AB20">
-        <v>3</v>
-      </c>
-      <c r="AC20">
-        <v>2.7</v>
-      </c>
-      <c r="AD20">
-        <v>20.9</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" t="s">
-        <v>47</v>
-      </c>
-      <c r="G21">
-        <v>2</v>
-      </c>
-      <c r="I21">
-        <v>50</v>
-      </c>
-      <c r="J21">
-        <v>9.4</v>
-      </c>
-      <c r="K21">
-        <v>19.4</v>
-      </c>
-      <c r="L21">
-        <v>0.481</v>
-      </c>
-      <c r="P21">
-        <v>9.4</v>
-      </c>
-      <c r="Q21">
-        <v>19.4</v>
-      </c>
-      <c r="R21">
-        <v>0.481</v>
-      </c>
-      <c r="S21">
-        <v>4.3</v>
-      </c>
-      <c r="T21">
-        <v>4.3</v>
-      </c>
-      <c r="U21">
-        <v>1</v>
-      </c>
-      <c r="V21">
-        <v>2.2</v>
-      </c>
-      <c r="W21">
-        <v>1.4</v>
-      </c>
-      <c r="X21">
-        <v>3.6</v>
-      </c>
-      <c r="Y21">
-        <v>3.6</v>
-      </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
-      <c r="AB21">
-        <v>2.2</v>
-      </c>
-      <c r="AC21">
-        <v>0.7</v>
-      </c>
-      <c r="AD21">
-        <v>23</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="I22">
-        <v>-1887</v>
-      </c>
-      <c r="J22">
-        <v>0.7000000000000011</v>
-      </c>
-      <c r="K22">
-        <v>0.5999999999999979</v>
-      </c>
-      <c r="L22">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P22">
-        <v>0.7000000000000011</v>
-      </c>
-      <c r="Q22">
-        <v>0.5999999999999979</v>
-      </c>
-      <c r="R22">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="S22">
-        <v>0.7999999999999998</v>
-      </c>
-      <c r="T22">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="U22">
-        <v>0.147</v>
-      </c>
-      <c r="V22">
-        <v>0.5000000000000002</v>
-      </c>
-      <c r="W22">
-        <v>-0.7000000000000002</v>
-      </c>
-      <c r="X22">
-        <v>-0.1999999999999997</v>
-      </c>
-      <c r="Y22">
-        <v>0.3000000000000003</v>
-      </c>
-      <c r="Z22">
-        <v>-1.1</v>
-      </c>
-      <c r="AA22">
-        <v>-0.6</v>
-      </c>
-      <c r="AB22">
-        <v>-0.7999999999999998</v>
-      </c>
-      <c r="AC22">
-        <v>-2</v>
-      </c>
-      <c r="AD22">
-        <v>2.100000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" t="s">
-        <v>47</v>
-      </c>
-      <c r="G23">
-        <v>32</v>
-      </c>
-      <c r="I23">
-        <v>174</v>
-      </c>
-      <c r="J23">
-        <v>7</v>
-      </c>
-      <c r="K23">
-        <v>20.7</v>
-      </c>
-      <c r="L23">
-        <v>0.34</v>
-      </c>
-      <c r="P23">
-        <v>7</v>
-      </c>
-      <c r="Q23">
-        <v>20.7</v>
-      </c>
-      <c r="R23">
-        <v>0.34</v>
-      </c>
-      <c r="S23">
-        <v>3.3</v>
-      </c>
-      <c r="T23">
-        <v>3.7</v>
-      </c>
-      <c r="U23">
-        <v>0.889</v>
-      </c>
-      <c r="V23">
-        <v>3.7</v>
-      </c>
-      <c r="W23">
-        <v>4.3</v>
-      </c>
-      <c r="X23">
-        <v>8.1</v>
-      </c>
-      <c r="Y23">
-        <v>3.9</v>
-      </c>
-      <c r="Z23">
-        <v>1.4</v>
-      </c>
-      <c r="AA23">
-        <v>0.4</v>
-      </c>
-      <c r="AC23">
-        <v>2.3</v>
-      </c>
-      <c r="AD23">
-        <v>17.4</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24">
-        <v>5</v>
-      </c>
-      <c r="I24">
-        <v>16</v>
-      </c>
-      <c r="J24">
-        <v>13.5</v>
-      </c>
-      <c r="K24">
-        <v>24.8</v>
-      </c>
-      <c r="L24">
-        <v>0.545</v>
-      </c>
-      <c r="P24">
-        <v>13.5</v>
-      </c>
-      <c r="Q24">
-        <v>24.8</v>
-      </c>
-      <c r="R24">
-        <v>0.545</v>
-      </c>
-      <c r="S24">
-        <v>9</v>
-      </c>
-      <c r="T24">
-        <v>9</v>
-      </c>
-      <c r="U24">
-        <v>1</v>
-      </c>
-      <c r="V24">
-        <v>6.8</v>
-      </c>
-      <c r="W24">
-        <v>4.5</v>
-      </c>
-      <c r="X24">
-        <v>11.3</v>
-      </c>
-      <c r="Y24">
-        <v>0</v>
-      </c>
-      <c r="Z24">
-        <v>2.3</v>
-      </c>
-      <c r="AA24">
-        <v>0</v>
-      </c>
-      <c r="AC24">
-        <v>4.5</v>
-      </c>
-      <c r="AD24">
-        <v>36</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="I25">
-        <v>-158</v>
-      </c>
-      <c r="J25">
-        <v>6.5</v>
-      </c>
-      <c r="K25">
-        <v>4.100000000000001</v>
-      </c>
-      <c r="L25">
-        <v>0.205</v>
-      </c>
-      <c r="P25">
-        <v>6.5</v>
-      </c>
-      <c r="Q25">
-        <v>4.100000000000001</v>
-      </c>
-      <c r="R25">
-        <v>0.205</v>
-      </c>
-      <c r="S25">
-        <v>5.7</v>
-      </c>
-      <c r="T25">
-        <v>5.3</v>
-      </c>
-      <c r="U25">
-        <v>0.111</v>
-      </c>
-      <c r="V25">
-        <v>3.1</v>
-      </c>
-      <c r="W25">
-        <v>0.2000000000000002</v>
-      </c>
-      <c r="X25">
-        <v>3.200000000000001</v>
-      </c>
-      <c r="Y25">
-        <v>-3.9</v>
-      </c>
-      <c r="Z25">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA25">
-        <v>-0.4</v>
-      </c>
-      <c r="AC25">
-        <v>2.2</v>
-      </c>
-      <c r="AD25">
-        <v>18.6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:31">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26" t="s">
-        <v>47</v>
-      </c>
-      <c r="G26">
-        <v>55</v>
-      </c>
-      <c r="I26">
-        <v>1718</v>
-      </c>
-      <c r="J26">
-        <v>7.6</v>
-      </c>
-      <c r="K26">
-        <v>16</v>
-      </c>
-      <c r="L26">
-        <v>0.476</v>
-      </c>
-      <c r="M26">
-        <v>0.5</v>
-      </c>
-      <c r="N26">
-        <v>1.5</v>
-      </c>
-      <c r="O26">
-        <v>0.315</v>
-      </c>
-      <c r="P26">
-        <v>7.1</v>
-      </c>
-      <c r="Q26">
-        <v>14.5</v>
-      </c>
-      <c r="R26">
-        <v>0.493</v>
-      </c>
-      <c r="S26">
-        <v>2.7</v>
-      </c>
-      <c r="T26">
-        <v>3</v>
-      </c>
-      <c r="U26">
-        <v>0.8759999999999999</v>
-      </c>
-      <c r="V26">
-        <v>1</v>
-      </c>
-      <c r="W26">
-        <v>2.2</v>
-      </c>
-      <c r="X26">
-        <v>3.2</v>
-      </c>
-      <c r="Y26">
-        <v>4.6</v>
-      </c>
-      <c r="Z26">
-        <v>1.1</v>
-      </c>
-      <c r="AA26">
-        <v>0.3</v>
-      </c>
-      <c r="AB26">
-        <v>2.7</v>
-      </c>
-      <c r="AC26">
-        <v>1.7</v>
-      </c>
-      <c r="AD26">
-        <v>18.4</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:31">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" t="s">
-        <v>47</v>
-      </c>
-      <c r="G28">
-        <v>239</v>
-      </c>
-      <c r="I28">
-        <v>4809</v>
-      </c>
-      <c r="J28">
-        <v>7.8</v>
-      </c>
-      <c r="K28">
-        <v>17</v>
-      </c>
-      <c r="L28">
-        <v>0.459</v>
-      </c>
-      <c r="M28">
-        <v>0.4</v>
-      </c>
-      <c r="N28">
-        <v>1.4</v>
-      </c>
-      <c r="O28">
-        <v>0.293</v>
-      </c>
-      <c r="P28">
-        <v>7.6</v>
-      </c>
-      <c r="Q28">
-        <v>16.4</v>
-      </c>
-      <c r="R28">
-        <v>0.466</v>
-      </c>
-      <c r="S28">
-        <v>3.3</v>
-      </c>
-      <c r="T28">
-        <v>3.8</v>
-      </c>
-      <c r="U28">
-        <v>0.862</v>
-      </c>
-      <c r="V28">
-        <v>1.6</v>
-      </c>
-      <c r="W28">
-        <v>2.2</v>
-      </c>
-      <c r="X28">
-        <v>3.8</v>
-      </c>
-      <c r="Y28">
-        <v>4.3</v>
-      </c>
-      <c r="Z28">
-        <v>1.2</v>
-      </c>
-      <c r="AA28">
-        <v>0.5</v>
-      </c>
-      <c r="AB28">
-        <v>2.9</v>
-      </c>
-      <c r="AC28">
-        <v>2.2</v>
-      </c>
-      <c r="AD28">
-        <v>19.1</v>
-      </c>
-      <c r="AE28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" t="s">
-        <v>47</v>
-      </c>
-      <c r="G29">
-        <v>16</v>
-      </c>
-      <c r="I29">
-        <v>310</v>
-      </c>
-      <c r="J29">
-        <v>8.6</v>
-      </c>
-      <c r="K29">
-        <v>17.5</v>
-      </c>
-      <c r="L29">
-        <v>0.49</v>
-      </c>
-      <c r="P29">
-        <v>8.6</v>
-      </c>
-      <c r="Q29">
-        <v>17.5</v>
-      </c>
-      <c r="R29">
-        <v>0.49</v>
-      </c>
-      <c r="S29">
-        <v>4.2</v>
-      </c>
-      <c r="T29">
-        <v>4.4</v>
-      </c>
-      <c r="U29">
-        <v>0.9470000000000001</v>
-      </c>
-      <c r="V29">
-        <v>2</v>
-      </c>
-      <c r="W29">
-        <v>2.9</v>
-      </c>
-      <c r="X29">
-        <v>4.9</v>
-      </c>
-      <c r="Y29">
-        <v>3.9</v>
-      </c>
-      <c r="Z29">
-        <v>0.9</v>
-      </c>
-      <c r="AA29">
-        <v>0.2</v>
-      </c>
-      <c r="AB29">
-        <v>1.8</v>
-      </c>
-      <c r="AC29">
-        <v>2.1</v>
-      </c>
-      <c r="AD29">
-        <v>21.4</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:31">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="I30">
-        <v>-4499</v>
-      </c>
-      <c r="J30">
-        <v>0.7999999999999998</v>
-      </c>
-      <c r="K30">
-        <v>0.5</v>
-      </c>
-      <c r="L30">
-        <v>0.03100000000000003</v>
-      </c>
-      <c r="P30">
-        <v>1</v>
-      </c>
-      <c r="Q30">
-        <v>1.100000000000001</v>
-      </c>
-      <c r="R30">
-        <v>0.02399999999999997</v>
-      </c>
-      <c r="S30">
-        <v>0.9000000000000004</v>
-      </c>
-      <c r="T30">
-        <v>0.6000000000000005</v>
-      </c>
-      <c r="U30">
-        <v>0.08500000000000008</v>
-      </c>
-      <c r="V30">
-        <v>0.3999999999999999</v>
-      </c>
-      <c r="W30">
-        <v>0.6999999999999997</v>
-      </c>
-      <c r="X30">
-        <v>1.100000000000001</v>
-      </c>
-      <c r="Y30">
-        <v>-0.3999999999999999</v>
-      </c>
-      <c r="Z30">
-        <v>-0.2999999999999999</v>
-      </c>
-      <c r="AA30">
-        <v>-0.3</v>
-      </c>
-      <c r="AB30">
-        <v>-1.1</v>
-      </c>
-      <c r="AC30">
-        <v>-0.1000000000000001</v>
-      </c>
-      <c r="AD30">
-        <v>2.299999999999997</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH30"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:34">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2">
-        <v>32</v>
-      </c>
-      <c r="I2">
-        <v>174</v>
-      </c>
-      <c r="J2">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="K2">
-        <v>25.5</v>
-      </c>
-      <c r="L2">
-        <v>0.34</v>
-      </c>
-      <c r="P2">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="Q2">
-        <v>25.5</v>
-      </c>
-      <c r="R2">
-        <v>0.34</v>
-      </c>
-      <c r="S2">
-        <v>4.1</v>
-      </c>
-      <c r="T2">
-        <v>4.6</v>
-      </c>
-      <c r="U2">
-        <v>0.889</v>
-      </c>
-      <c r="V2">
-        <v>4.6</v>
-      </c>
-      <c r="W2">
-        <v>5.3</v>
-      </c>
-      <c r="X2">
-        <v>9.9</v>
-      </c>
-      <c r="Y2">
-        <v>4.8</v>
-      </c>
-      <c r="Z2">
-        <v>1.8</v>
-      </c>
-      <c r="AA2">
-        <v>0.5</v>
-      </c>
-      <c r="AC2">
-        <v>2.8</v>
-      </c>
-      <c r="AD2">
-        <v>21.4</v>
-      </c>
-      <c r="AG2">
-        <v>99</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="I3">
-        <v>16</v>
-      </c>
-      <c r="J3">
-        <v>16.8</v>
-      </c>
-      <c r="K3">
-        <v>30.8</v>
-      </c>
-      <c r="L3">
-        <v>0.545</v>
-      </c>
-      <c r="P3">
-        <v>16.8</v>
-      </c>
-      <c r="Q3">
-        <v>30.8</v>
-      </c>
-      <c r="R3">
-        <v>0.545</v>
-      </c>
-      <c r="S3">
-        <v>11.2</v>
-      </c>
-      <c r="T3">
-        <v>11.2</v>
-      </c>
-      <c r="U3">
-        <v>1</v>
-      </c>
-      <c r="V3">
-        <v>8.4</v>
-      </c>
-      <c r="W3">
-        <v>5.6</v>
-      </c>
-      <c r="X3">
-        <v>14</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>2.8</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>5.6</v>
-      </c>
-      <c r="AD3">
-        <v>44.7</v>
-      </c>
-      <c r="AG3">
-        <v>99</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>-158</v>
-      </c>
-      <c r="J4">
-        <v>8.100000000000001</v>
-      </c>
-      <c r="K4">
-        <v>5.300000000000001</v>
-      </c>
-      <c r="L4">
-        <v>0.205</v>
-      </c>
-      <c r="P4">
-        <v>8.100000000000001</v>
-      </c>
-      <c r="Q4">
-        <v>5.300000000000001</v>
-      </c>
-      <c r="R4">
-        <v>0.205</v>
-      </c>
-      <c r="S4">
-        <v>7.1</v>
-      </c>
-      <c r="T4">
-        <v>6.6</v>
-      </c>
-      <c r="U4">
-        <v>0.111</v>
-      </c>
-      <c r="V4">
-        <v>3.800000000000001</v>
-      </c>
-      <c r="W4">
-        <v>0.2999999999999998</v>
-      </c>
-      <c r="X4">
-        <v>4.1</v>
-      </c>
-      <c r="Y4">
-        <v>-4.8</v>
-      </c>
-      <c r="Z4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AA4">
-        <v>-0.5</v>
-      </c>
-      <c r="AC4">
-        <v>2.8</v>
-      </c>
-      <c r="AD4">
-        <v>23.3</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5">
-        <v>53</v>
-      </c>
-      <c r="I5">
-        <v>827</v>
-      </c>
-      <c r="J5">
-        <v>10.8</v>
-      </c>
-      <c r="K5">
-        <v>24.8</v>
-      </c>
-      <c r="L5">
-        <v>0.433</v>
-      </c>
-      <c r="P5">
-        <v>10.8</v>
-      </c>
-      <c r="Q5">
-        <v>24.8</v>
-      </c>
-      <c r="R5">
-        <v>0.433</v>
-      </c>
-      <c r="S5">
-        <v>4.9</v>
-      </c>
-      <c r="T5">
-        <v>5.6</v>
-      </c>
-      <c r="U5">
-        <v>0.889</v>
-      </c>
-      <c r="V5">
-        <v>2.6</v>
-      </c>
-      <c r="W5">
-        <v>3.4</v>
-      </c>
-      <c r="X5">
-        <v>6</v>
-      </c>
-      <c r="Y5">
-        <v>4</v>
-      </c>
-      <c r="Z5">
-        <v>1.2</v>
-      </c>
-      <c r="AA5">
-        <v>0.8</v>
-      </c>
-      <c r="AB5">
-        <v>4.3</v>
-      </c>
-      <c r="AC5">
-        <v>3.8</v>
-      </c>
-      <c r="AD5">
-        <v>26.5</v>
-      </c>
-      <c r="AF5">
-        <v>96</v>
-      </c>
-      <c r="AG5">
-        <v>103</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="I6">
-        <v>50</v>
-      </c>
-      <c r="J6">
-        <v>12.1</v>
-      </c>
-      <c r="K6">
-        <v>25.1</v>
-      </c>
-      <c r="L6">
-        <v>0.481</v>
-      </c>
-      <c r="P6">
-        <v>12.1</v>
-      </c>
-      <c r="Q6">
-        <v>25.1</v>
-      </c>
-      <c r="R6">
-        <v>0.481</v>
-      </c>
-      <c r="S6">
-        <v>5.6</v>
-      </c>
-      <c r="T6">
-        <v>5.6</v>
-      </c>
-      <c r="U6">
-        <v>1</v>
-      </c>
-      <c r="V6">
-        <v>2.8</v>
-      </c>
-      <c r="W6">
-        <v>1.9</v>
-      </c>
-      <c r="X6">
-        <v>4.6</v>
-      </c>
-      <c r="Y6">
-        <v>4.6</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>2.8</v>
-      </c>
-      <c r="AC6">
-        <v>0.9</v>
-      </c>
-      <c r="AD6">
-        <v>29.7</v>
-      </c>
-      <c r="AF6">
-        <v>115</v>
-      </c>
-      <c r="AG6">
-        <v>122</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="I7">
-        <v>-777</v>
-      </c>
-      <c r="J7">
-        <v>1.299999999999999</v>
-      </c>
-      <c r="K7">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="L7">
-        <v>0.04800000000000004</v>
-      </c>
-      <c r="P7">
-        <v>1.299999999999999</v>
-      </c>
-      <c r="Q7">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="R7">
-        <v>0.04800000000000004</v>
-      </c>
-      <c r="S7">
-        <v>0.6999999999999993</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0.111</v>
-      </c>
-      <c r="V7">
-        <v>0.1999999999999997</v>
-      </c>
-      <c r="W7">
-        <v>-1.5</v>
-      </c>
-      <c r="X7">
-        <v>-1.4</v>
-      </c>
-      <c r="Y7">
-        <v>0.5999999999999996</v>
-      </c>
-      <c r="Z7">
-        <v>-1.2</v>
-      </c>
-      <c r="AA7">
-        <v>-0.8</v>
-      </c>
-      <c r="AB7">
-        <v>-1.5</v>
-      </c>
-      <c r="AC7">
-        <v>-2.9</v>
-      </c>
-      <c r="AD7">
-        <v>3.199999999999999</v>
-      </c>
-      <c r="AF7">
-        <v>19</v>
-      </c>
-      <c r="AG7">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8">
-        <v>78</v>
-      </c>
-      <c r="I8">
-        <v>1686</v>
-      </c>
-      <c r="J8">
-        <v>10.8</v>
-      </c>
-      <c r="K8">
-        <v>22.3</v>
-      </c>
-      <c r="L8">
-        <v>0.483</v>
-      </c>
-      <c r="P8">
-        <v>10.8</v>
-      </c>
-      <c r="Q8">
-        <v>22.3</v>
-      </c>
-      <c r="R8">
-        <v>0.483</v>
-      </c>
-      <c r="S8">
-        <v>4.5</v>
-      </c>
-      <c r="T8">
-        <v>5.4</v>
-      </c>
-      <c r="U8">
-        <v>0.836</v>
-      </c>
-      <c r="V8">
-        <v>2.1</v>
-      </c>
-      <c r="W8">
-        <v>2.5</v>
-      </c>
-      <c r="X8">
-        <v>4.6</v>
-      </c>
-      <c r="Y8">
-        <v>5.1</v>
-      </c>
-      <c r="Z8">
-        <v>1.6</v>
-      </c>
-      <c r="AA8">
-        <v>0.8</v>
-      </c>
-      <c r="AB8">
-        <v>3.7</v>
-      </c>
-      <c r="AC8">
-        <v>3.4</v>
-      </c>
-      <c r="AD8">
-        <v>26.1</v>
-      </c>
-      <c r="AF8">
-        <v>106</v>
-      </c>
-      <c r="AG8">
-        <v>108</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9">
-        <v>49</v>
-      </c>
-      <c r="I9">
-        <v>1110</v>
-      </c>
-      <c r="J9">
-        <v>11.6</v>
-      </c>
-      <c r="K9">
-        <v>24</v>
-      </c>
-      <c r="L9">
-        <v>0.483</v>
-      </c>
-      <c r="P9">
-        <v>11.6</v>
-      </c>
-      <c r="Q9">
-        <v>24</v>
-      </c>
-      <c r="R9">
-        <v>0.483</v>
-      </c>
-      <c r="S9">
-        <v>4.3</v>
-      </c>
-      <c r="T9">
-        <v>5.3</v>
-      </c>
-      <c r="U9">
-        <v>0.8240000000000001</v>
-      </c>
-      <c r="V9">
-        <v>1.9</v>
-      </c>
-      <c r="W9">
-        <v>2.2</v>
-      </c>
-      <c r="X9">
-        <v>4</v>
-      </c>
-      <c r="Y9">
-        <v>4.3</v>
-      </c>
-      <c r="Z9">
-        <v>1.7</v>
-      </c>
-      <c r="AA9">
-        <v>0.7</v>
-      </c>
-      <c r="AB9">
-        <v>3.7</v>
-      </c>
-      <c r="AC9">
-        <v>3.4</v>
-      </c>
-      <c r="AD9">
-        <v>27.5</v>
-      </c>
-      <c r="AF9">
-        <v>104</v>
-      </c>
-      <c r="AG9">
-        <v>110</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10">
-        <v>29</v>
-      </c>
-      <c r="I10">
-        <v>576</v>
-      </c>
-      <c r="J10">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="K10">
-        <v>19.1</v>
-      </c>
-      <c r="L10">
-        <v>0.481</v>
-      </c>
-      <c r="P10">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="Q10">
-        <v>19.1</v>
-      </c>
-      <c r="R10">
-        <v>0.481</v>
-      </c>
-      <c r="S10">
-        <v>4.9</v>
-      </c>
-      <c r="T10">
-        <v>5.7</v>
-      </c>
-      <c r="U10">
-        <v>0.857</v>
-      </c>
-      <c r="V10">
-        <v>2.6</v>
-      </c>
-      <c r="W10">
-        <v>3.2</v>
-      </c>
-      <c r="X10">
-        <v>5.8</v>
-      </c>
-      <c r="Y10">
-        <v>6.6</v>
-      </c>
-      <c r="Z10">
-        <v>1.5</v>
-      </c>
-      <c r="AA10">
-        <v>1.1</v>
-      </c>
-      <c r="AB10">
-        <v>3.8</v>
-      </c>
-      <c r="AC10">
-        <v>3.4</v>
-      </c>
-      <c r="AD10">
-        <v>23.3</v>
-      </c>
-      <c r="AF10">
-        <v>109</v>
-      </c>
-      <c r="AG10">
-        <v>106</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11">
-        <v>9</v>
-      </c>
-      <c r="I11">
-        <v>244</v>
-      </c>
-      <c r="J11">
-        <v>11.5</v>
-      </c>
-      <c r="K11">
-        <v>23.6</v>
-      </c>
-      <c r="L11">
-        <v>0.487</v>
-      </c>
-      <c r="P11">
-        <v>11.5</v>
-      </c>
-      <c r="Q11">
-        <v>23.6</v>
-      </c>
-      <c r="R11">
-        <v>0.487</v>
-      </c>
-      <c r="S11">
-        <v>5.4</v>
-      </c>
-      <c r="T11">
-        <v>5.9</v>
-      </c>
-      <c r="U11">
-        <v>0.929</v>
-      </c>
-      <c r="V11">
-        <v>2.3</v>
-      </c>
-      <c r="W11">
-        <v>4.4</v>
-      </c>
-      <c r="X11">
-        <v>6.7</v>
-      </c>
-      <c r="Y11">
-        <v>6.1</v>
-      </c>
-      <c r="Z11">
-        <v>1.5</v>
-      </c>
-      <c r="AA11">
-        <v>0.4</v>
-      </c>
-      <c r="AB11">
-        <v>2.5</v>
-      </c>
-      <c r="AC11">
-        <v>3.1</v>
-      </c>
-      <c r="AD11">
-        <v>28.4</v>
-      </c>
-      <c r="AF11">
-        <v>117</v>
-      </c>
-      <c r="AG11">
-        <v>107</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="I12">
-        <v>-1442</v>
-      </c>
-      <c r="J12">
-        <v>0.6999999999999993</v>
-      </c>
-      <c r="K12">
-        <v>1.300000000000001</v>
-      </c>
-      <c r="L12">
-        <v>0.004000000000000059</v>
-      </c>
-      <c r="P12">
-        <v>0.6999999999999993</v>
-      </c>
-      <c r="Q12">
-        <v>1.300000000000001</v>
-      </c>
-      <c r="R12">
-        <v>0.004000000000000059</v>
-      </c>
-      <c r="S12">
-        <v>0.9000000000000004</v>
-      </c>
-      <c r="T12">
-        <v>0.5</v>
-      </c>
-      <c r="U12">
-        <v>0.09300000000000008</v>
-      </c>
-      <c r="V12">
-        <v>0.1999999999999997</v>
-      </c>
-      <c r="W12">
-        <v>1.9</v>
-      </c>
-      <c r="X12">
-        <v>2.100000000000001</v>
-      </c>
-      <c r="Y12">
-        <v>1</v>
-      </c>
-      <c r="Z12">
-        <v>-0.1000000000000001</v>
-      </c>
-      <c r="AA12">
-        <v>-0.4</v>
-      </c>
-      <c r="AB12">
-        <v>-1.2</v>
-      </c>
-      <c r="AC12">
-        <v>-0.2999999999999998</v>
-      </c>
-      <c r="AD12">
-        <v>2.299999999999997</v>
-      </c>
-      <c r="AF12">
-        <v>11</v>
-      </c>
-      <c r="AG12">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13">
-        <v>76</v>
-      </c>
-      <c r="I13">
-        <v>2122</v>
-      </c>
-      <c r="J13">
-        <v>9.9</v>
-      </c>
-      <c r="K13">
-        <v>21.4</v>
-      </c>
-      <c r="L13">
-        <v>0.464</v>
-      </c>
-      <c r="M13">
-        <v>0.6</v>
-      </c>
-      <c r="N13">
-        <v>1.9</v>
-      </c>
-      <c r="O13">
-        <v>0.293</v>
-      </c>
-      <c r="P13">
-        <v>9.4</v>
-      </c>
-      <c r="Q13">
-        <v>19.5</v>
-      </c>
-      <c r="R13">
-        <v>0.481</v>
-      </c>
-      <c r="S13">
-        <v>4</v>
-      </c>
-      <c r="T13">
-        <v>4.5</v>
-      </c>
-      <c r="U13">
-        <v>0.872</v>
-      </c>
-      <c r="V13">
-        <v>1.6</v>
-      </c>
-      <c r="W13">
-        <v>2.9</v>
-      </c>
-      <c r="X13">
-        <v>4.5</v>
-      </c>
-      <c r="Y13">
-        <v>6.8</v>
-      </c>
-      <c r="Z13">
-        <v>1.7</v>
-      </c>
-      <c r="AA13">
-        <v>0.5</v>
-      </c>
-      <c r="AB13">
-        <v>3.8</v>
-      </c>
-      <c r="AC13">
-        <v>2.3</v>
-      </c>
-      <c r="AD13">
-        <v>24.4</v>
-      </c>
-      <c r="AF13">
-        <v>104</v>
-      </c>
-      <c r="AG13">
-        <v>111</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14">
-        <v>21</v>
-      </c>
-      <c r="I14">
-        <v>404</v>
-      </c>
-      <c r="J14">
-        <v>7.9</v>
-      </c>
-      <c r="K14">
-        <v>19.3</v>
-      </c>
-      <c r="L14">
-        <v>0.41</v>
-      </c>
-      <c r="M14">
-        <v>0.1</v>
-      </c>
-      <c r="N14">
-        <v>1.1</v>
-      </c>
-      <c r="O14">
-        <v>0.111</v>
-      </c>
-      <c r="P14">
-        <v>7.8</v>
-      </c>
-      <c r="Q14">
-        <v>18.3</v>
-      </c>
-      <c r="R14">
-        <v>0.428</v>
-      </c>
-      <c r="S14">
-        <v>5.3</v>
-      </c>
-      <c r="T14">
-        <v>6.1</v>
-      </c>
-      <c r="U14">
-        <v>0.863</v>
-      </c>
-      <c r="V14">
-        <v>2.8</v>
-      </c>
-      <c r="W14">
-        <v>2.3</v>
-      </c>
-      <c r="X14">
-        <v>5</v>
-      </c>
-      <c r="Y14">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="Z14">
-        <v>2.3</v>
-      </c>
-      <c r="AA14">
-        <v>1.1</v>
-      </c>
-      <c r="AB14">
-        <v>4.1</v>
-      </c>
-      <c r="AC14">
-        <v>2.3</v>
-      </c>
-      <c r="AD14">
-        <v>21.3</v>
-      </c>
-      <c r="AF14">
-        <v>104</v>
-      </c>
-      <c r="AG14">
-        <v>104</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15">
-        <v>55</v>
-      </c>
-      <c r="I15">
-        <v>1718</v>
-      </c>
-      <c r="J15">
-        <v>10.4</v>
-      </c>
-      <c r="K15">
-        <v>21.9</v>
-      </c>
-      <c r="L15">
-        <v>0.476</v>
-      </c>
-      <c r="M15">
-        <v>0.7</v>
-      </c>
-      <c r="N15">
-        <v>2.1</v>
-      </c>
-      <c r="O15">
-        <v>0.315</v>
-      </c>
-      <c r="P15">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Q15">
-        <v>19.8</v>
-      </c>
-      <c r="R15">
-        <v>0.493</v>
-      </c>
-      <c r="S15">
-        <v>3.6</v>
-      </c>
-      <c r="T15">
-        <v>4.2</v>
-      </c>
-      <c r="U15">
-        <v>0.8759999999999999</v>
-      </c>
-      <c r="V15">
-        <v>1.3</v>
-      </c>
-      <c r="W15">
-        <v>3</v>
-      </c>
-      <c r="X15">
-        <v>4.4</v>
-      </c>
-      <c r="Y15">
-        <v>6.3</v>
-      </c>
-      <c r="Z15">
-        <v>1.5</v>
-      </c>
-      <c r="AA15">
-        <v>0.4</v>
-      </c>
-      <c r="AB15">
-        <v>3.7</v>
-      </c>
-      <c r="AC15">
-        <v>2.3</v>
-      </c>
-      <c r="AD15">
-        <v>25.1</v>
-      </c>
-      <c r="AF15">
-        <v>104</v>
-      </c>
-      <c r="AG15">
-        <v>113</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17">
-        <v>50</v>
-      </c>
-      <c r="I17">
-        <v>980</v>
-      </c>
-      <c r="J17">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="K17">
-        <v>19.2</v>
-      </c>
-      <c r="L17">
-        <v>0.452</v>
-      </c>
-      <c r="M17">
-        <v>0.1</v>
-      </c>
-      <c r="N17">
-        <v>1.1</v>
-      </c>
-      <c r="O17">
-        <v>0.111</v>
-      </c>
-      <c r="P17">
-        <v>8.6</v>
-      </c>
-      <c r="Q17">
-        <v>18.8</v>
-      </c>
-      <c r="R17">
-        <v>0.46</v>
-      </c>
-      <c r="S17">
-        <v>5</v>
-      </c>
-      <c r="T17">
-        <v>5.9</v>
-      </c>
-      <c r="U17">
-        <v>0.86</v>
-      </c>
-      <c r="V17">
-        <v>2.7</v>
-      </c>
-      <c r="W17">
-        <v>2.8</v>
-      </c>
-      <c r="X17">
-        <v>5.5</v>
-      </c>
-      <c r="Y17">
-        <v>7.4</v>
-      </c>
-      <c r="Z17">
-        <v>1.8</v>
-      </c>
-      <c r="AA17">
-        <v>1.1</v>
-      </c>
-      <c r="AB17">
-        <v>3.9</v>
-      </c>
-      <c r="AC17">
-        <v>3</v>
-      </c>
-      <c r="AD17">
-        <v>22.5</v>
-      </c>
-      <c r="AF17">
-        <v>107</v>
-      </c>
-      <c r="AG17">
-        <v>105</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" t="s">
-        <v>47</v>
-      </c>
-      <c r="G18">
-        <v>9</v>
-      </c>
-      <c r="I18">
-        <v>244</v>
-      </c>
-      <c r="J18">
-        <v>11.5</v>
-      </c>
-      <c r="K18">
-        <v>23.6</v>
-      </c>
-      <c r="L18">
-        <v>0.487</v>
-      </c>
-      <c r="P18">
-        <v>11.5</v>
-      </c>
-      <c r="Q18">
-        <v>23.6</v>
-      </c>
-      <c r="R18">
-        <v>0.487</v>
-      </c>
-      <c r="S18">
-        <v>5.4</v>
-      </c>
-      <c r="T18">
-        <v>5.9</v>
-      </c>
-      <c r="U18">
-        <v>0.929</v>
-      </c>
-      <c r="V18">
-        <v>2.3</v>
-      </c>
-      <c r="W18">
-        <v>4.4</v>
-      </c>
-      <c r="X18">
-        <v>6.7</v>
-      </c>
-      <c r="Y18">
-        <v>6.1</v>
-      </c>
-      <c r="Z18">
-        <v>1.5</v>
-      </c>
-      <c r="AA18">
-        <v>0.4</v>
-      </c>
-      <c r="AB18">
-        <v>2.5</v>
-      </c>
-      <c r="AC18">
-        <v>3.1</v>
-      </c>
-      <c r="AD18">
-        <v>28.4</v>
-      </c>
-      <c r="AF18">
-        <v>117</v>
-      </c>
-      <c r="AG18">
-        <v>107</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="I19">
-        <v>-736</v>
-      </c>
-      <c r="J19">
-        <v>2.800000000000001</v>
-      </c>
-      <c r="K19">
-        <v>4.400000000000002</v>
-      </c>
-      <c r="L19">
-        <v>0.03500000000000003</v>
-      </c>
-      <c r="P19">
-        <v>2.9</v>
-      </c>
-      <c r="Q19">
-        <v>4.800000000000001</v>
-      </c>
-      <c r="R19">
-        <v>0.02700000000000002</v>
-      </c>
-      <c r="S19">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>0.06900000000000006</v>
-      </c>
-      <c r="V19">
-        <v>-0.4000000000000004</v>
-      </c>
-      <c r="W19">
-        <v>1.600000000000001</v>
-      </c>
-      <c r="X19">
-        <v>1.2</v>
-      </c>
-      <c r="Y19">
-        <v>-1.300000000000001</v>
-      </c>
-      <c r="Z19">
-        <v>-0.3</v>
-      </c>
-      <c r="AA19">
-        <v>-0.7000000000000001</v>
-      </c>
-      <c r="AB19">
-        <v>-1.4</v>
-      </c>
-      <c r="AC19">
-        <v>0.1000000000000001</v>
-      </c>
-      <c r="AD19">
-        <v>5.899999999999999</v>
-      </c>
-      <c r="AF19">
-        <v>10</v>
-      </c>
-      <c r="AG19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20">
-        <v>102</v>
-      </c>
-      <c r="I20">
-        <v>1937</v>
-      </c>
-      <c r="J20">
-        <v>11.2</v>
-      </c>
-      <c r="K20">
-        <v>24.3</v>
-      </c>
-      <c r="L20">
-        <v>0.461</v>
-      </c>
-      <c r="P20">
-        <v>11.2</v>
-      </c>
-      <c r="Q20">
-        <v>24.3</v>
-      </c>
-      <c r="R20">
-        <v>0.461</v>
-      </c>
-      <c r="S20">
-        <v>4.6</v>
-      </c>
-      <c r="T20">
-        <v>5.4</v>
-      </c>
-      <c r="U20">
-        <v>0.853</v>
-      </c>
-      <c r="V20">
-        <v>2.2</v>
-      </c>
-      <c r="W20">
-        <v>2.7</v>
-      </c>
-      <c r="X20">
-        <v>4.9</v>
-      </c>
-      <c r="Y20">
-        <v>4.2</v>
-      </c>
-      <c r="Z20">
-        <v>1.5</v>
-      </c>
-      <c r="AA20">
-        <v>0.7</v>
-      </c>
-      <c r="AB20">
-        <v>3.9</v>
-      </c>
-      <c r="AC20">
-        <v>3.5</v>
-      </c>
-      <c r="AD20">
-        <v>27.1</v>
-      </c>
-      <c r="AF20">
-        <v>100</v>
-      </c>
-      <c r="AG20">
-        <v>107</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:34">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" t="s">
-        <v>47</v>
-      </c>
-      <c r="G21">
-        <v>2</v>
-      </c>
-      <c r="I21">
-        <v>50</v>
-      </c>
-      <c r="J21">
-        <v>12.1</v>
-      </c>
-      <c r="K21">
-        <v>25.1</v>
-      </c>
-      <c r="L21">
-        <v>0.481</v>
-      </c>
-      <c r="P21">
-        <v>12.1</v>
-      </c>
-      <c r="Q21">
-        <v>25.1</v>
-      </c>
-      <c r="R21">
-        <v>0.481</v>
-      </c>
-      <c r="S21">
-        <v>5.6</v>
-      </c>
-      <c r="T21">
-        <v>5.6</v>
-      </c>
-      <c r="U21">
-        <v>1</v>
-      </c>
-      <c r="V21">
-        <v>2.8</v>
-      </c>
-      <c r="W21">
-        <v>1.9</v>
-      </c>
-      <c r="X21">
-        <v>4.6</v>
-      </c>
-      <c r="Y21">
-        <v>4.6</v>
-      </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
-      <c r="AB21">
-        <v>2.8</v>
-      </c>
-      <c r="AC21">
-        <v>0.9</v>
-      </c>
-      <c r="AD21">
-        <v>29.7</v>
-      </c>
-      <c r="AF21">
-        <v>115</v>
-      </c>
-      <c r="AG21">
-        <v>122</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:34">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="I22">
-        <v>-1887</v>
-      </c>
-      <c r="J22">
-        <v>0.9000000000000004</v>
-      </c>
-      <c r="K22">
-        <v>0.8000000000000007</v>
-      </c>
-      <c r="L22">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P22">
-        <v>0.9000000000000004</v>
-      </c>
-      <c r="Q22">
-        <v>0.8000000000000007</v>
-      </c>
-      <c r="R22">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="S22">
-        <v>1</v>
-      </c>
-      <c r="T22">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="U22">
-        <v>0.147</v>
-      </c>
-      <c r="V22">
-        <v>0.5999999999999996</v>
-      </c>
-      <c r="W22">
-        <v>-0.8000000000000003</v>
-      </c>
-      <c r="X22">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="Y22">
-        <v>0.3999999999999995</v>
-      </c>
-      <c r="Z22">
-        <v>-1.5</v>
-      </c>
-      <c r="AA22">
-        <v>-0.7</v>
-      </c>
-      <c r="AB22">
-        <v>-1.1</v>
-      </c>
-      <c r="AC22">
-        <v>-2.6</v>
-      </c>
-      <c r="AD22">
-        <v>2.599999999999998</v>
-      </c>
-      <c r="AF22">
-        <v>15</v>
-      </c>
-      <c r="AG22">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:34">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" t="s">
-        <v>47</v>
-      </c>
-      <c r="G23">
-        <v>32</v>
-      </c>
-      <c r="I23">
-        <v>174</v>
-      </c>
-      <c r="J23">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="K23">
-        <v>25.5</v>
-      </c>
-      <c r="L23">
-        <v>0.34</v>
-      </c>
-      <c r="P23">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="Q23">
-        <v>25.5</v>
-      </c>
-      <c r="R23">
-        <v>0.34</v>
-      </c>
-      <c r="S23">
-        <v>4.1</v>
-      </c>
-      <c r="T23">
-        <v>4.6</v>
-      </c>
-      <c r="U23">
-        <v>0.889</v>
-      </c>
-      <c r="V23">
-        <v>4.6</v>
-      </c>
-      <c r="W23">
-        <v>5.3</v>
-      </c>
-      <c r="X23">
-        <v>9.9</v>
-      </c>
-      <c r="Y23">
-        <v>4.8</v>
-      </c>
-      <c r="Z23">
-        <v>1.8</v>
-      </c>
-      <c r="AA23">
-        <v>0.5</v>
-      </c>
-      <c r="AC23">
-        <v>2.8</v>
-      </c>
-      <c r="AD23">
-        <v>21.4</v>
-      </c>
-      <c r="AG23">
-        <v>99</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:34">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24">
-        <v>5</v>
-      </c>
-      <c r="I24">
-        <v>16</v>
-      </c>
-      <c r="J24">
-        <v>16.8</v>
-      </c>
-      <c r="K24">
-        <v>30.8</v>
-      </c>
-      <c r="L24">
-        <v>0.545</v>
-      </c>
-      <c r="P24">
-        <v>16.8</v>
-      </c>
-      <c r="Q24">
-        <v>30.8</v>
-      </c>
-      <c r="R24">
-        <v>0.545</v>
-      </c>
-      <c r="S24">
-        <v>11.2</v>
-      </c>
-      <c r="T24">
-        <v>11.2</v>
-      </c>
-      <c r="U24">
-        <v>1</v>
-      </c>
-      <c r="V24">
-        <v>8.4</v>
-      </c>
-      <c r="W24">
-        <v>5.6</v>
-      </c>
-      <c r="X24">
-        <v>14</v>
-      </c>
-      <c r="Y24">
-        <v>0</v>
-      </c>
-      <c r="Z24">
-        <v>2.8</v>
-      </c>
-      <c r="AA24">
-        <v>0</v>
-      </c>
-      <c r="AC24">
-        <v>5.6</v>
-      </c>
-      <c r="AD24">
-        <v>44.7</v>
-      </c>
-      <c r="AG24">
-        <v>99</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:34">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="I25">
-        <v>-158</v>
-      </c>
-      <c r="J25">
-        <v>8.100000000000001</v>
-      </c>
-      <c r="K25">
-        <v>5.300000000000001</v>
-      </c>
-      <c r="L25">
-        <v>0.205</v>
-      </c>
-      <c r="P25">
-        <v>8.100000000000001</v>
-      </c>
-      <c r="Q25">
-        <v>5.300000000000001</v>
-      </c>
-      <c r="R25">
-        <v>0.205</v>
-      </c>
-      <c r="S25">
-        <v>7.1</v>
-      </c>
-      <c r="T25">
-        <v>6.6</v>
-      </c>
-      <c r="U25">
-        <v>0.111</v>
-      </c>
-      <c r="V25">
-        <v>3.800000000000001</v>
-      </c>
-      <c r="W25">
-        <v>0.2999999999999998</v>
-      </c>
-      <c r="X25">
-        <v>4.1</v>
-      </c>
-      <c r="Y25">
-        <v>-4.8</v>
-      </c>
-      <c r="Z25">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AA25">
-        <v>-0.5</v>
-      </c>
-      <c r="AC25">
-        <v>2.8</v>
-      </c>
-      <c r="AD25">
-        <v>23.3</v>
-      </c>
-      <c r="AG25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:34">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26" t="s">
-        <v>47</v>
-      </c>
-      <c r="G26">
-        <v>55</v>
-      </c>
-      <c r="I26">
-        <v>1718</v>
-      </c>
-      <c r="J26">
-        <v>10.4</v>
-      </c>
-      <c r="K26">
-        <v>21.9</v>
-      </c>
-      <c r="L26">
-        <v>0.476</v>
-      </c>
-      <c r="M26">
-        <v>0.7</v>
-      </c>
-      <c r="N26">
-        <v>2.1</v>
-      </c>
-      <c r="O26">
-        <v>0.315</v>
-      </c>
-      <c r="P26">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Q26">
-        <v>19.8</v>
-      </c>
-      <c r="R26">
-        <v>0.493</v>
-      </c>
-      <c r="S26">
-        <v>3.6</v>
-      </c>
-      <c r="T26">
-        <v>4.2</v>
-      </c>
-      <c r="U26">
-        <v>0.8759999999999999</v>
-      </c>
-      <c r="V26">
-        <v>1.3</v>
-      </c>
-      <c r="W26">
-        <v>3</v>
-      </c>
-      <c r="X26">
-        <v>4.4</v>
-      </c>
-      <c r="Y26">
-        <v>6.3</v>
-      </c>
-      <c r="Z26">
-        <v>1.5</v>
-      </c>
-      <c r="AA26">
-        <v>0.4</v>
-      </c>
-      <c r="AB26">
-        <v>3.7</v>
-      </c>
-      <c r="AC26">
-        <v>2.3</v>
-      </c>
-      <c r="AD26">
-        <v>25.1</v>
-      </c>
-      <c r="AF26">
-        <v>104</v>
-      </c>
-      <c r="AG26">
-        <v>113</v>
-      </c>
-      <c r="AH26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:34">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:34">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" t="s">
-        <v>47</v>
-      </c>
-      <c r="G28">
-        <v>239</v>
-      </c>
-      <c r="I28">
-        <v>4809</v>
-      </c>
-      <c r="J28">
-        <v>10.3</v>
-      </c>
-      <c r="K28">
-        <v>22.5</v>
-      </c>
-      <c r="L28">
-        <v>0.459</v>
-      </c>
-      <c r="M28">
-        <v>0.6</v>
-      </c>
-      <c r="N28">
-        <v>1.9</v>
-      </c>
-      <c r="O28">
-        <v>0.293</v>
-      </c>
-      <c r="P28">
-        <v>10.1</v>
-      </c>
-      <c r="Q28">
-        <v>21.7</v>
-      </c>
-      <c r="R28">
-        <v>0.466</v>
-      </c>
-      <c r="S28">
-        <v>4.3</v>
-      </c>
-      <c r="T28">
-        <v>5</v>
-      </c>
-      <c r="U28">
-        <v>0.862</v>
-      </c>
-      <c r="V28">
-        <v>2.1</v>
-      </c>
-      <c r="W28">
-        <v>2.9</v>
-      </c>
-      <c r="X28">
-        <v>5</v>
-      </c>
-      <c r="Y28">
-        <v>5.6</v>
-      </c>
-      <c r="Z28">
-        <v>1.6</v>
-      </c>
-      <c r="AA28">
-        <v>0.7</v>
-      </c>
-      <c r="AB28">
-        <v>3.7</v>
-      </c>
-      <c r="AC28">
-        <v>2.9</v>
-      </c>
-      <c r="AD28">
-        <v>25.2</v>
-      </c>
-      <c r="AF28">
-        <v>103</v>
-      </c>
-      <c r="AG28">
-        <v>108</v>
-      </c>
-      <c r="AH28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:34">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" t="s">
-        <v>47</v>
-      </c>
-      <c r="G29">
-        <v>16</v>
-      </c>
-      <c r="I29">
-        <v>310</v>
-      </c>
-      <c r="J29">
-        <v>11.9</v>
-      </c>
-      <c r="K29">
-        <v>24.3</v>
-      </c>
-      <c r="L29">
-        <v>0.49</v>
-      </c>
-      <c r="P29">
-        <v>11.9</v>
-      </c>
-      <c r="Q29">
-        <v>24.3</v>
-      </c>
-      <c r="R29">
-        <v>0.49</v>
-      </c>
-      <c r="S29">
-        <v>5.8</v>
-      </c>
-      <c r="T29">
-        <v>6.1</v>
-      </c>
-      <c r="U29">
-        <v>0.9470000000000001</v>
-      </c>
-      <c r="V29">
-        <v>2.7</v>
-      </c>
-      <c r="W29">
-        <v>4</v>
-      </c>
-      <c r="X29">
-        <v>6.8</v>
-      </c>
-      <c r="Y29">
-        <v>5.5</v>
-      </c>
-      <c r="Z29">
-        <v>1.3</v>
-      </c>
-      <c r="AA29">
-        <v>0.3</v>
-      </c>
-      <c r="AB29">
-        <v>2.4</v>
-      </c>
-      <c r="AC29">
-        <v>2.9</v>
-      </c>
-      <c r="AD29">
-        <v>29.6</v>
-      </c>
-      <c r="AF29">
-        <v>117</v>
-      </c>
-      <c r="AG29">
-        <v>109</v>
-      </c>
-      <c r="AH29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:34">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="I30">
-        <v>-4499</v>
-      </c>
-      <c r="J30">
-        <v>1.6</v>
-      </c>
-      <c r="K30">
-        <v>1.800000000000001</v>
-      </c>
-      <c r="L30">
-        <v>0.03100000000000003</v>
-      </c>
-      <c r="P30">
-        <v>1.800000000000001</v>
-      </c>
-      <c r="Q30">
-        <v>2.600000000000001</v>
-      </c>
-      <c r="R30">
-        <v>0.02399999999999997</v>
-      </c>
-      <c r="S30">
-        <v>1.5</v>
-      </c>
-      <c r="T30">
-        <v>1.1</v>
-      </c>
-      <c r="U30">
-        <v>0.08500000000000008</v>
-      </c>
-      <c r="V30">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="W30">
-        <v>1.1</v>
-      </c>
-      <c r="X30">
-        <v>1.8</v>
-      </c>
-      <c r="Y30">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="Z30">
-        <v>-0.3</v>
-      </c>
-      <c r="AA30">
-        <v>-0.4</v>
-      </c>
-      <c r="AB30">
-        <v>-1.3</v>
-      </c>
-      <c r="AC30">
-        <v>0</v>
-      </c>
-      <c r="AD30">
-        <v>4.400000000000002</v>
-      </c>
-      <c r="AF30">
-        <v>14</v>
-      </c>
-      <c r="AG30">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7415,70 +2912,70 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>30</v>

--- a/output/furlote01.xlsx
+++ b/output/furlote01.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="74">
   <si>
     <t>Season</t>
   </si>
@@ -170,6 +170,12 @@
   </si>
   <si>
     <t>PS</t>
+  </si>
+  <si>
+    <t>ORtg</t>
+  </si>
+  <si>
+    <t>DRtg</t>
   </si>
   <si>
     <t>PER</t>
@@ -2859,24 +2865,4521 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AE30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:31">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2">
+        <v>32</v>
+      </c>
+      <c r="I2">
+        <v>174</v>
+      </c>
+      <c r="J2">
+        <v>7</v>
+      </c>
+      <c r="K2">
+        <v>20.7</v>
+      </c>
+      <c r="L2">
+        <v>0.34</v>
+      </c>
+      <c r="P2">
+        <v>7</v>
+      </c>
+      <c r="Q2">
+        <v>20.7</v>
+      </c>
+      <c r="R2">
+        <v>0.34</v>
+      </c>
+      <c r="S2">
+        <v>3.3</v>
+      </c>
+      <c r="T2">
+        <v>3.7</v>
+      </c>
+      <c r="U2">
+        <v>0.889</v>
+      </c>
+      <c r="V2">
+        <v>3.7</v>
+      </c>
+      <c r="W2">
+        <v>4.3</v>
+      </c>
+      <c r="X2">
+        <v>8.1</v>
+      </c>
+      <c r="Y2">
+        <v>3.9</v>
+      </c>
+      <c r="Z2">
+        <v>1.4</v>
+      </c>
+      <c r="AA2">
+        <v>0.4</v>
+      </c>
+      <c r="AC2">
+        <v>2.3</v>
+      </c>
+      <c r="AD2">
+        <v>17.4</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>16</v>
+      </c>
+      <c r="J3">
+        <v>13.5</v>
+      </c>
+      <c r="K3">
+        <v>24.8</v>
+      </c>
+      <c r="L3">
+        <v>0.545</v>
+      </c>
+      <c r="P3">
+        <v>13.5</v>
+      </c>
+      <c r="Q3">
+        <v>24.8</v>
+      </c>
+      <c r="R3">
+        <v>0.545</v>
+      </c>
+      <c r="S3">
+        <v>9</v>
+      </c>
+      <c r="T3">
+        <v>9</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>6.8</v>
+      </c>
+      <c r="W3">
+        <v>4.5</v>
+      </c>
+      <c r="X3">
+        <v>11.3</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>2.3</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>4.5</v>
+      </c>
+      <c r="AD3">
+        <v>36</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>-158</v>
+      </c>
+      <c r="J4">
+        <v>6.5</v>
+      </c>
+      <c r="K4">
+        <v>4.100000000000001</v>
+      </c>
+      <c r="L4">
+        <v>0.205</v>
+      </c>
+      <c r="P4">
+        <v>6.5</v>
+      </c>
+      <c r="Q4">
+        <v>4.100000000000001</v>
+      </c>
+      <c r="R4">
+        <v>0.205</v>
+      </c>
+      <c r="S4">
+        <v>5.7</v>
+      </c>
+      <c r="T4">
+        <v>5.3</v>
+      </c>
+      <c r="U4">
+        <v>0.111</v>
+      </c>
+      <c r="V4">
+        <v>3.1</v>
+      </c>
+      <c r="W4">
+        <v>0.2000000000000002</v>
+      </c>
+      <c r="X4">
+        <v>3.200000000000001</v>
+      </c>
+      <c r="Y4">
+        <v>-3.9</v>
+      </c>
+      <c r="Z4">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA4">
+        <v>-0.4</v>
+      </c>
+      <c r="AC4">
+        <v>2.2</v>
+      </c>
+      <c r="AD4">
+        <v>18.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5">
+        <v>53</v>
+      </c>
+      <c r="I5">
+        <v>827</v>
+      </c>
+      <c r="J5">
+        <v>8.4</v>
+      </c>
+      <c r="K5">
+        <v>19.3</v>
+      </c>
+      <c r="L5">
+        <v>0.433</v>
+      </c>
+      <c r="P5">
+        <v>8.4</v>
+      </c>
+      <c r="Q5">
+        <v>19.3</v>
+      </c>
+      <c r="R5">
+        <v>0.433</v>
+      </c>
+      <c r="S5">
+        <v>3.8</v>
+      </c>
+      <c r="T5">
+        <v>4.3</v>
+      </c>
+      <c r="U5">
+        <v>0.889</v>
+      </c>
+      <c r="V5">
+        <v>2</v>
+      </c>
+      <c r="W5">
+        <v>2.6</v>
+      </c>
+      <c r="X5">
+        <v>4.7</v>
+      </c>
+      <c r="Y5">
+        <v>3.1</v>
+      </c>
+      <c r="Z5">
+        <v>0.9</v>
+      </c>
+      <c r="AA5">
+        <v>0.6</v>
+      </c>
+      <c r="AB5">
+        <v>3.4</v>
+      </c>
+      <c r="AC5">
+        <v>2.9</v>
+      </c>
+      <c r="AD5">
+        <v>20.5</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>50</v>
+      </c>
+      <c r="J6">
+        <v>9.4</v>
+      </c>
+      <c r="K6">
+        <v>19.4</v>
+      </c>
+      <c r="L6">
+        <v>0.481</v>
+      </c>
+      <c r="P6">
+        <v>9.4</v>
+      </c>
+      <c r="Q6">
+        <v>19.4</v>
+      </c>
+      <c r="R6">
+        <v>0.481</v>
+      </c>
+      <c r="S6">
+        <v>4.3</v>
+      </c>
+      <c r="T6">
+        <v>4.3</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>2.2</v>
+      </c>
+      <c r="W6">
+        <v>1.4</v>
+      </c>
+      <c r="X6">
+        <v>3.6</v>
+      </c>
+      <c r="Y6">
+        <v>3.6</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>2.2</v>
+      </c>
+      <c r="AC6">
+        <v>0.7</v>
+      </c>
+      <c r="AD6">
+        <v>23</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>-777</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>0.09999999999999787</v>
+      </c>
+      <c r="L7">
+        <v>0.04800000000000004</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>0.09999999999999787</v>
+      </c>
+      <c r="R7">
+        <v>0.04800000000000004</v>
+      </c>
+      <c r="S7">
+        <v>0.5</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0.111</v>
+      </c>
+      <c r="V7">
+        <v>0.2000000000000002</v>
+      </c>
+      <c r="W7">
+        <v>-1.2</v>
+      </c>
+      <c r="X7">
+        <v>-1.1</v>
+      </c>
+      <c r="Y7">
+        <v>0.5</v>
+      </c>
+      <c r="Z7">
+        <v>-0.9</v>
+      </c>
+      <c r="AA7">
+        <v>-0.6</v>
+      </c>
+      <c r="AB7">
+        <v>-1.2</v>
+      </c>
+      <c r="AC7">
+        <v>-2.2</v>
+      </c>
+      <c r="AD7">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8">
+        <v>78</v>
+      </c>
+      <c r="I8">
+        <v>1686</v>
+      </c>
+      <c r="J8">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="K8">
+        <v>17.2</v>
+      </c>
+      <c r="L8">
+        <v>0.483</v>
+      </c>
+      <c r="P8">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Q8">
+        <v>17.2</v>
+      </c>
+      <c r="R8">
+        <v>0.483</v>
+      </c>
+      <c r="S8">
+        <v>3.5</v>
+      </c>
+      <c r="T8">
+        <v>4.2</v>
+      </c>
+      <c r="U8">
+        <v>0.836</v>
+      </c>
+      <c r="V8">
+        <v>1.6</v>
+      </c>
+      <c r="W8">
+        <v>1.9</v>
+      </c>
+      <c r="X8">
+        <v>3.6</v>
+      </c>
+      <c r="Y8">
+        <v>3.9</v>
+      </c>
+      <c r="Z8">
+        <v>1.2</v>
+      </c>
+      <c r="AA8">
+        <v>0.6</v>
+      </c>
+      <c r="AB8">
+        <v>2.9</v>
+      </c>
+      <c r="AC8">
+        <v>2.6</v>
+      </c>
+      <c r="AD8">
+        <v>20</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9">
+        <v>49</v>
+      </c>
+      <c r="I9">
+        <v>1110</v>
+      </c>
+      <c r="J9">
+        <v>8.9</v>
+      </c>
+      <c r="K9">
+        <v>18.5</v>
+      </c>
+      <c r="L9">
+        <v>0.483</v>
+      </c>
+      <c r="P9">
+        <v>8.9</v>
+      </c>
+      <c r="Q9">
+        <v>18.5</v>
+      </c>
+      <c r="R9">
+        <v>0.483</v>
+      </c>
+      <c r="S9">
+        <v>3.3</v>
+      </c>
+      <c r="T9">
+        <v>4.1</v>
+      </c>
+      <c r="U9">
+        <v>0.8240000000000001</v>
+      </c>
+      <c r="V9">
+        <v>1.4</v>
+      </c>
+      <c r="W9">
+        <v>1.7</v>
+      </c>
+      <c r="X9">
+        <v>3.1</v>
+      </c>
+      <c r="Y9">
+        <v>3.3</v>
+      </c>
+      <c r="Z9">
+        <v>1.3</v>
+      </c>
+      <c r="AA9">
+        <v>0.6</v>
+      </c>
+      <c r="AB9">
+        <v>2.8</v>
+      </c>
+      <c r="AC9">
+        <v>2.6</v>
+      </c>
+      <c r="AD9">
+        <v>21.2</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10">
+        <v>29</v>
+      </c>
+      <c r="I10">
+        <v>576</v>
+      </c>
+      <c r="J10">
+        <v>7.1</v>
+      </c>
+      <c r="K10">
+        <v>14.7</v>
+      </c>
+      <c r="L10">
+        <v>0.481</v>
+      </c>
+      <c r="P10">
+        <v>7.1</v>
+      </c>
+      <c r="Q10">
+        <v>14.7</v>
+      </c>
+      <c r="R10">
+        <v>0.481</v>
+      </c>
+      <c r="S10">
+        <v>3.7</v>
+      </c>
+      <c r="T10">
+        <v>4.4</v>
+      </c>
+      <c r="U10">
+        <v>0.857</v>
+      </c>
+      <c r="V10">
+        <v>2</v>
+      </c>
+      <c r="W10">
+        <v>2.4</v>
+      </c>
+      <c r="X10">
+        <v>4.4</v>
+      </c>
+      <c r="Y10">
+        <v>5.1</v>
+      </c>
+      <c r="Z10">
+        <v>1.1</v>
+      </c>
+      <c r="AA10">
+        <v>0.8</v>
+      </c>
+      <c r="AB10">
+        <v>2.9</v>
+      </c>
+      <c r="AC10">
+        <v>2.6</v>
+      </c>
+      <c r="AD10">
+        <v>17.9</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+      <c r="I11">
+        <v>244</v>
+      </c>
+      <c r="J11">
+        <v>8.1</v>
+      </c>
+      <c r="K11">
+        <v>16.7</v>
+      </c>
+      <c r="L11">
+        <v>0.487</v>
+      </c>
+      <c r="P11">
+        <v>8.1</v>
+      </c>
+      <c r="Q11">
+        <v>16.7</v>
+      </c>
+      <c r="R11">
+        <v>0.487</v>
+      </c>
+      <c r="S11">
+        <v>3.8</v>
+      </c>
+      <c r="T11">
+        <v>4.1</v>
+      </c>
+      <c r="U11">
+        <v>0.929</v>
+      </c>
+      <c r="V11">
+        <v>1.6</v>
+      </c>
+      <c r="W11">
+        <v>3.1</v>
+      </c>
+      <c r="X11">
+        <v>4.7</v>
+      </c>
+      <c r="Y11">
+        <v>4.3</v>
+      </c>
+      <c r="Z11">
+        <v>1</v>
+      </c>
+      <c r="AA11">
+        <v>0.3</v>
+      </c>
+      <c r="AB11">
+        <v>1.8</v>
+      </c>
+      <c r="AC11">
+        <v>2.2</v>
+      </c>
+      <c r="AD11">
+        <v>20.1</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="I12">
+        <v>-1442</v>
+      </c>
+      <c r="J12">
+        <v>-0.2000000000000011</v>
+      </c>
+      <c r="K12">
+        <v>-0.5</v>
+      </c>
+      <c r="L12">
+        <v>0.004000000000000059</v>
+      </c>
+      <c r="P12">
+        <v>-0.2000000000000011</v>
+      </c>
+      <c r="Q12">
+        <v>-0.5</v>
+      </c>
+      <c r="R12">
+        <v>0.004000000000000059</v>
+      </c>
+      <c r="S12">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="T12">
+        <v>-0.1000000000000005</v>
+      </c>
+      <c r="U12">
+        <v>0.09300000000000008</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>1.2</v>
+      </c>
+      <c r="X12">
+        <v>1.1</v>
+      </c>
+      <c r="Y12">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="Z12">
+        <v>-0.2</v>
+      </c>
+      <c r="AA12">
+        <v>-0.3</v>
+      </c>
+      <c r="AB12">
+        <v>-1.1</v>
+      </c>
+      <c r="AC12">
+        <v>-0.3999999999999999</v>
+      </c>
+      <c r="AD12">
+        <v>0.1000000000000014</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13">
+        <v>76</v>
+      </c>
+      <c r="I13">
+        <v>2122</v>
+      </c>
+      <c r="J13">
+        <v>7.3</v>
+      </c>
+      <c r="K13">
+        <v>15.7</v>
+      </c>
+      <c r="L13">
+        <v>0.464</v>
+      </c>
+      <c r="M13">
+        <v>0.4</v>
+      </c>
+      <c r="N13">
+        <v>1.4</v>
+      </c>
+      <c r="O13">
+        <v>0.293</v>
+      </c>
+      <c r="P13">
+        <v>6.9</v>
+      </c>
+      <c r="Q13">
+        <v>14.3</v>
+      </c>
+      <c r="R13">
+        <v>0.481</v>
+      </c>
+      <c r="S13">
+        <v>2.9</v>
+      </c>
+      <c r="T13">
+        <v>3.3</v>
+      </c>
+      <c r="U13">
+        <v>0.872</v>
+      </c>
+      <c r="V13">
+        <v>1.2</v>
+      </c>
+      <c r="W13">
+        <v>2.1</v>
+      </c>
+      <c r="X13">
+        <v>3.3</v>
+      </c>
+      <c r="Y13">
+        <v>5</v>
+      </c>
+      <c r="Z13">
+        <v>1.2</v>
+      </c>
+      <c r="AA13">
+        <v>0.4</v>
+      </c>
+      <c r="AB13">
+        <v>2.8</v>
+      </c>
+      <c r="AC13">
+        <v>1.7</v>
+      </c>
+      <c r="AD13">
+        <v>17.9</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14">
+        <v>21</v>
+      </c>
+      <c r="I14">
+        <v>404</v>
+      </c>
+      <c r="J14">
+        <v>5.9</v>
+      </c>
+      <c r="K14">
+        <v>14.3</v>
+      </c>
+      <c r="L14">
+        <v>0.41</v>
+      </c>
+      <c r="M14">
+        <v>0.1</v>
+      </c>
+      <c r="N14">
+        <v>0.8</v>
+      </c>
+      <c r="O14">
+        <v>0.111</v>
+      </c>
+      <c r="P14">
+        <v>5.8</v>
+      </c>
+      <c r="Q14">
+        <v>13.5</v>
+      </c>
+      <c r="R14">
+        <v>0.428</v>
+      </c>
+      <c r="S14">
+        <v>3.9</v>
+      </c>
+      <c r="T14">
+        <v>4.5</v>
+      </c>
+      <c r="U14">
+        <v>0.863</v>
+      </c>
+      <c r="V14">
+        <v>2</v>
+      </c>
+      <c r="W14">
+        <v>1.7</v>
+      </c>
+      <c r="X14">
+        <v>3.7</v>
+      </c>
+      <c r="Y14">
+        <v>6.4</v>
+      </c>
+      <c r="Z14">
+        <v>1.7</v>
+      </c>
+      <c r="AA14">
+        <v>0.8</v>
+      </c>
+      <c r="AB14">
+        <v>3</v>
+      </c>
+      <c r="AC14">
+        <v>1.7</v>
+      </c>
+      <c r="AD14">
+        <v>15.8</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15">
+        <v>55</v>
+      </c>
+      <c r="I15">
+        <v>1718</v>
+      </c>
+      <c r="J15">
+        <v>7.6</v>
+      </c>
+      <c r="K15">
+        <v>16</v>
+      </c>
+      <c r="L15">
+        <v>0.476</v>
+      </c>
+      <c r="M15">
+        <v>0.5</v>
+      </c>
+      <c r="N15">
+        <v>1.5</v>
+      </c>
+      <c r="O15">
+        <v>0.315</v>
+      </c>
+      <c r="P15">
+        <v>7.1</v>
+      </c>
+      <c r="Q15">
+        <v>14.5</v>
+      </c>
+      <c r="R15">
+        <v>0.493</v>
+      </c>
+      <c r="S15">
+        <v>2.7</v>
+      </c>
+      <c r="T15">
+        <v>3</v>
+      </c>
+      <c r="U15">
+        <v>0.8759999999999999</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <v>2.2</v>
+      </c>
+      <c r="X15">
+        <v>3.2</v>
+      </c>
+      <c r="Y15">
+        <v>4.6</v>
+      </c>
+      <c r="Z15">
+        <v>1.1</v>
+      </c>
+      <c r="AA15">
+        <v>0.3</v>
+      </c>
+      <c r="AB15">
+        <v>2.7</v>
+      </c>
+      <c r="AC15">
+        <v>1.7</v>
+      </c>
+      <c r="AD15">
+        <v>18.4</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17">
+        <v>50</v>
+      </c>
+      <c r="I17">
+        <v>980</v>
+      </c>
+      <c r="J17">
+        <v>6.6</v>
+      </c>
+      <c r="K17">
+        <v>14.5</v>
+      </c>
+      <c r="L17">
+        <v>0.452</v>
+      </c>
+      <c r="M17">
+        <v>0.1</v>
+      </c>
+      <c r="N17">
+        <v>0.8</v>
+      </c>
+      <c r="O17">
+        <v>0.111</v>
+      </c>
+      <c r="P17">
+        <v>6.5</v>
+      </c>
+      <c r="Q17">
+        <v>14.2</v>
+      </c>
+      <c r="R17">
+        <v>0.46</v>
+      </c>
+      <c r="S17">
+        <v>3.8</v>
+      </c>
+      <c r="T17">
+        <v>4.4</v>
+      </c>
+      <c r="U17">
+        <v>0.86</v>
+      </c>
+      <c r="V17">
+        <v>2</v>
+      </c>
+      <c r="W17">
+        <v>2.1</v>
+      </c>
+      <c r="X17">
+        <v>4.2</v>
+      </c>
+      <c r="Y17">
+        <v>5.6</v>
+      </c>
+      <c r="Z17">
+        <v>1.4</v>
+      </c>
+      <c r="AA17">
+        <v>0.8</v>
+      </c>
+      <c r="AB17">
+        <v>3</v>
+      </c>
+      <c r="AC17">
+        <v>2.2</v>
+      </c>
+      <c r="AD17">
+        <v>17</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18">
+        <v>9</v>
+      </c>
+      <c r="I18">
+        <v>244</v>
+      </c>
+      <c r="J18">
+        <v>8.1</v>
+      </c>
+      <c r="K18">
+        <v>16.7</v>
+      </c>
+      <c r="L18">
+        <v>0.487</v>
+      </c>
+      <c r="P18">
+        <v>8.1</v>
+      </c>
+      <c r="Q18">
+        <v>16.7</v>
+      </c>
+      <c r="R18">
+        <v>0.487</v>
+      </c>
+      <c r="S18">
+        <v>3.8</v>
+      </c>
+      <c r="T18">
+        <v>4.1</v>
+      </c>
+      <c r="U18">
+        <v>0.929</v>
+      </c>
+      <c r="V18">
+        <v>1.6</v>
+      </c>
+      <c r="W18">
+        <v>3.1</v>
+      </c>
+      <c r="X18">
+        <v>4.7</v>
+      </c>
+      <c r="Y18">
+        <v>4.3</v>
+      </c>
+      <c r="Z18">
+        <v>1</v>
+      </c>
+      <c r="AA18">
+        <v>0.3</v>
+      </c>
+      <c r="AB18">
+        <v>1.8</v>
+      </c>
+      <c r="AC18">
+        <v>2.2</v>
+      </c>
+      <c r="AD18">
+        <v>20.1</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="I19">
+        <v>-736</v>
+      </c>
+      <c r="J19">
+        <v>1.5</v>
+      </c>
+      <c r="K19">
+        <v>2.199999999999999</v>
+      </c>
+      <c r="L19">
+        <v>0.03500000000000003</v>
+      </c>
+      <c r="P19">
+        <v>1.6</v>
+      </c>
+      <c r="Q19">
+        <v>2.5</v>
+      </c>
+      <c r="R19">
+        <v>0.02700000000000002</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>-0.3000000000000007</v>
+      </c>
+      <c r="U19">
+        <v>0.06900000000000006</v>
+      </c>
+      <c r="V19">
+        <v>-0.3999999999999999</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>0.5</v>
+      </c>
+      <c r="Y19">
+        <v>-1.3</v>
+      </c>
+      <c r="Z19">
+        <v>-0.3999999999999999</v>
+      </c>
+      <c r="AA19">
+        <v>-0.5</v>
+      </c>
+      <c r="AB19">
+        <v>-1.2</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>3.100000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20">
+        <v>102</v>
+      </c>
+      <c r="I20">
+        <v>1937</v>
+      </c>
+      <c r="J20">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="K20">
+        <v>18.8</v>
+      </c>
+      <c r="L20">
+        <v>0.461</v>
+      </c>
+      <c r="P20">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Q20">
+        <v>18.8</v>
+      </c>
+      <c r="R20">
+        <v>0.461</v>
+      </c>
+      <c r="S20">
+        <v>3.5</v>
+      </c>
+      <c r="T20">
+        <v>4.2</v>
+      </c>
+      <c r="U20">
+        <v>0.853</v>
+      </c>
+      <c r="V20">
+        <v>1.7</v>
+      </c>
+      <c r="W20">
+        <v>2.1</v>
+      </c>
+      <c r="X20">
+        <v>3.8</v>
+      </c>
+      <c r="Y20">
+        <v>3.3</v>
+      </c>
+      <c r="Z20">
+        <v>1.1</v>
+      </c>
+      <c r="AA20">
+        <v>0.6</v>
+      </c>
+      <c r="AB20">
+        <v>3</v>
+      </c>
+      <c r="AC20">
+        <v>2.7</v>
+      </c>
+      <c r="AD20">
+        <v>20.9</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>50</v>
+      </c>
+      <c r="J21">
+        <v>9.4</v>
+      </c>
+      <c r="K21">
+        <v>19.4</v>
+      </c>
+      <c r="L21">
+        <v>0.481</v>
+      </c>
+      <c r="P21">
+        <v>9.4</v>
+      </c>
+      <c r="Q21">
+        <v>19.4</v>
+      </c>
+      <c r="R21">
+        <v>0.481</v>
+      </c>
+      <c r="S21">
+        <v>4.3</v>
+      </c>
+      <c r="T21">
+        <v>4.3</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <v>2.2</v>
+      </c>
+      <c r="W21">
+        <v>1.4</v>
+      </c>
+      <c r="X21">
+        <v>3.6</v>
+      </c>
+      <c r="Y21">
+        <v>3.6</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>2.2</v>
+      </c>
+      <c r="AC21">
+        <v>0.7</v>
+      </c>
+      <c r="AD21">
+        <v>23</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="I22">
+        <v>-1887</v>
+      </c>
+      <c r="J22">
+        <v>0.7000000000000011</v>
+      </c>
+      <c r="K22">
+        <v>0.5999999999999979</v>
+      </c>
+      <c r="L22">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P22">
+        <v>0.7000000000000011</v>
+      </c>
+      <c r="Q22">
+        <v>0.5999999999999979</v>
+      </c>
+      <c r="R22">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="S22">
+        <v>0.7999999999999998</v>
+      </c>
+      <c r="T22">
+        <v>0.09999999999999964</v>
+      </c>
+      <c r="U22">
+        <v>0.147</v>
+      </c>
+      <c r="V22">
+        <v>0.5000000000000002</v>
+      </c>
+      <c r="W22">
+        <v>-0.7000000000000002</v>
+      </c>
+      <c r="X22">
+        <v>-0.1999999999999997</v>
+      </c>
+      <c r="Y22">
+        <v>0.3000000000000003</v>
+      </c>
+      <c r="Z22">
+        <v>-1.1</v>
+      </c>
+      <c r="AA22">
+        <v>-0.6</v>
+      </c>
+      <c r="AB22">
+        <v>-0.7999999999999998</v>
+      </c>
+      <c r="AC22">
+        <v>-2</v>
+      </c>
+      <c r="AD22">
+        <v>2.100000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23">
+        <v>32</v>
+      </c>
+      <c r="I23">
+        <v>174</v>
+      </c>
+      <c r="J23">
+        <v>7</v>
+      </c>
+      <c r="K23">
+        <v>20.7</v>
+      </c>
+      <c r="L23">
+        <v>0.34</v>
+      </c>
+      <c r="P23">
+        <v>7</v>
+      </c>
+      <c r="Q23">
+        <v>20.7</v>
+      </c>
+      <c r="R23">
+        <v>0.34</v>
+      </c>
+      <c r="S23">
+        <v>3.3</v>
+      </c>
+      <c r="T23">
+        <v>3.7</v>
+      </c>
+      <c r="U23">
+        <v>0.889</v>
+      </c>
+      <c r="V23">
+        <v>3.7</v>
+      </c>
+      <c r="W23">
+        <v>4.3</v>
+      </c>
+      <c r="X23">
+        <v>8.1</v>
+      </c>
+      <c r="Y23">
+        <v>3.9</v>
+      </c>
+      <c r="Z23">
+        <v>1.4</v>
+      </c>
+      <c r="AA23">
+        <v>0.4</v>
+      </c>
+      <c r="AC23">
+        <v>2.3</v>
+      </c>
+      <c r="AD23">
+        <v>17.4</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="I24">
+        <v>16</v>
+      </c>
+      <c r="J24">
+        <v>13.5</v>
+      </c>
+      <c r="K24">
+        <v>24.8</v>
+      </c>
+      <c r="L24">
+        <v>0.545</v>
+      </c>
+      <c r="P24">
+        <v>13.5</v>
+      </c>
+      <c r="Q24">
+        <v>24.8</v>
+      </c>
+      <c r="R24">
+        <v>0.545</v>
+      </c>
+      <c r="S24">
+        <v>9</v>
+      </c>
+      <c r="T24">
+        <v>9</v>
+      </c>
+      <c r="U24">
+        <v>1</v>
+      </c>
+      <c r="V24">
+        <v>6.8</v>
+      </c>
+      <c r="W24">
+        <v>4.5</v>
+      </c>
+      <c r="X24">
+        <v>11.3</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>2.3</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>4.5</v>
+      </c>
+      <c r="AD24">
+        <v>36</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="I25">
+        <v>-158</v>
+      </c>
+      <c r="J25">
+        <v>6.5</v>
+      </c>
+      <c r="K25">
+        <v>4.100000000000001</v>
+      </c>
+      <c r="L25">
+        <v>0.205</v>
+      </c>
+      <c r="P25">
+        <v>6.5</v>
+      </c>
+      <c r="Q25">
+        <v>4.100000000000001</v>
+      </c>
+      <c r="R25">
+        <v>0.205</v>
+      </c>
+      <c r="S25">
+        <v>5.7</v>
+      </c>
+      <c r="T25">
+        <v>5.3</v>
+      </c>
+      <c r="U25">
+        <v>0.111</v>
+      </c>
+      <c r="V25">
+        <v>3.1</v>
+      </c>
+      <c r="W25">
+        <v>0.2000000000000002</v>
+      </c>
+      <c r="X25">
+        <v>3.200000000000001</v>
+      </c>
+      <c r="Y25">
+        <v>-3.9</v>
+      </c>
+      <c r="Z25">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA25">
+        <v>-0.4</v>
+      </c>
+      <c r="AC25">
+        <v>2.2</v>
+      </c>
+      <c r="AD25">
+        <v>18.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" t="s">
+        <v>47</v>
+      </c>
+      <c r="G26">
+        <v>55</v>
+      </c>
+      <c r="I26">
+        <v>1718</v>
+      </c>
+      <c r="J26">
+        <v>7.6</v>
+      </c>
+      <c r="K26">
+        <v>16</v>
+      </c>
+      <c r="L26">
+        <v>0.476</v>
+      </c>
+      <c r="M26">
+        <v>0.5</v>
+      </c>
+      <c r="N26">
+        <v>1.5</v>
+      </c>
+      <c r="O26">
+        <v>0.315</v>
+      </c>
+      <c r="P26">
+        <v>7.1</v>
+      </c>
+      <c r="Q26">
+        <v>14.5</v>
+      </c>
+      <c r="R26">
+        <v>0.493</v>
+      </c>
+      <c r="S26">
+        <v>2.7</v>
+      </c>
+      <c r="T26">
+        <v>3</v>
+      </c>
+      <c r="U26">
+        <v>0.8759999999999999</v>
+      </c>
+      <c r="V26">
+        <v>1</v>
+      </c>
+      <c r="W26">
+        <v>2.2</v>
+      </c>
+      <c r="X26">
+        <v>3.2</v>
+      </c>
+      <c r="Y26">
+        <v>4.6</v>
+      </c>
+      <c r="Z26">
+        <v>1.1</v>
+      </c>
+      <c r="AA26">
+        <v>0.3</v>
+      </c>
+      <c r="AB26">
+        <v>2.7</v>
+      </c>
+      <c r="AC26">
+        <v>1.7</v>
+      </c>
+      <c r="AD26">
+        <v>18.4</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" t="s">
+        <v>47</v>
+      </c>
+      <c r="G28">
+        <v>239</v>
+      </c>
+      <c r="I28">
+        <v>4809</v>
+      </c>
+      <c r="J28">
+        <v>7.8</v>
+      </c>
+      <c r="K28">
+        <v>17</v>
+      </c>
+      <c r="L28">
+        <v>0.459</v>
+      </c>
+      <c r="M28">
+        <v>0.4</v>
+      </c>
+      <c r="N28">
+        <v>1.4</v>
+      </c>
+      <c r="O28">
+        <v>0.293</v>
+      </c>
+      <c r="P28">
+        <v>7.6</v>
+      </c>
+      <c r="Q28">
+        <v>16.4</v>
+      </c>
+      <c r="R28">
+        <v>0.466</v>
+      </c>
+      <c r="S28">
+        <v>3.3</v>
+      </c>
+      <c r="T28">
+        <v>3.8</v>
+      </c>
+      <c r="U28">
+        <v>0.862</v>
+      </c>
+      <c r="V28">
+        <v>1.6</v>
+      </c>
+      <c r="W28">
+        <v>2.2</v>
+      </c>
+      <c r="X28">
+        <v>3.8</v>
+      </c>
+      <c r="Y28">
+        <v>4.3</v>
+      </c>
+      <c r="Z28">
+        <v>1.2</v>
+      </c>
+      <c r="AA28">
+        <v>0.5</v>
+      </c>
+      <c r="AB28">
+        <v>2.9</v>
+      </c>
+      <c r="AC28">
+        <v>2.2</v>
+      </c>
+      <c r="AD28">
+        <v>19.1</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29">
+        <v>16</v>
+      </c>
+      <c r="I29">
+        <v>310</v>
+      </c>
+      <c r="J29">
+        <v>8.6</v>
+      </c>
+      <c r="K29">
+        <v>17.5</v>
+      </c>
+      <c r="L29">
+        <v>0.49</v>
+      </c>
+      <c r="P29">
+        <v>8.6</v>
+      </c>
+      <c r="Q29">
+        <v>17.5</v>
+      </c>
+      <c r="R29">
+        <v>0.49</v>
+      </c>
+      <c r="S29">
+        <v>4.2</v>
+      </c>
+      <c r="T29">
+        <v>4.4</v>
+      </c>
+      <c r="U29">
+        <v>0.9470000000000001</v>
+      </c>
+      <c r="V29">
+        <v>2</v>
+      </c>
+      <c r="W29">
+        <v>2.9</v>
+      </c>
+      <c r="X29">
+        <v>4.9</v>
+      </c>
+      <c r="Y29">
+        <v>3.9</v>
+      </c>
+      <c r="Z29">
+        <v>0.9</v>
+      </c>
+      <c r="AA29">
+        <v>0.2</v>
+      </c>
+      <c r="AB29">
+        <v>1.8</v>
+      </c>
+      <c r="AC29">
+        <v>2.1</v>
+      </c>
+      <c r="AD29">
+        <v>21.4</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="I30">
+        <v>-4499</v>
+      </c>
+      <c r="J30">
+        <v>0.7999999999999998</v>
+      </c>
+      <c r="K30">
+        <v>0.5</v>
+      </c>
+      <c r="L30">
+        <v>0.03100000000000003</v>
+      </c>
+      <c r="P30">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>1.100000000000001</v>
+      </c>
+      <c r="R30">
+        <v>0.02399999999999997</v>
+      </c>
+      <c r="S30">
+        <v>0.9000000000000004</v>
+      </c>
+      <c r="T30">
+        <v>0.6000000000000005</v>
+      </c>
+      <c r="U30">
+        <v>0.08500000000000008</v>
+      </c>
+      <c r="V30">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="W30">
+        <v>0.6999999999999997</v>
+      </c>
+      <c r="X30">
+        <v>1.100000000000001</v>
+      </c>
+      <c r="Y30">
+        <v>-0.3999999999999999</v>
+      </c>
+      <c r="Z30">
+        <v>-0.2999999999999999</v>
+      </c>
+      <c r="AA30">
+        <v>-0.3</v>
+      </c>
+      <c r="AB30">
+        <v>-1.1</v>
+      </c>
+      <c r="AC30">
+        <v>-0.1000000000000001</v>
+      </c>
+      <c r="AD30">
+        <v>2.299999999999997</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AH30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:34">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2">
+        <v>32</v>
+      </c>
+      <c r="I2">
+        <v>174</v>
+      </c>
+      <c r="J2">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="K2">
+        <v>25.5</v>
+      </c>
+      <c r="L2">
+        <v>0.34</v>
+      </c>
+      <c r="P2">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Q2">
+        <v>25.5</v>
+      </c>
+      <c r="R2">
+        <v>0.34</v>
+      </c>
+      <c r="S2">
+        <v>4.1</v>
+      </c>
+      <c r="T2">
+        <v>4.6</v>
+      </c>
+      <c r="U2">
+        <v>0.889</v>
+      </c>
+      <c r="V2">
+        <v>4.6</v>
+      </c>
+      <c r="W2">
+        <v>5.3</v>
+      </c>
+      <c r="X2">
+        <v>9.9</v>
+      </c>
+      <c r="Y2">
+        <v>4.8</v>
+      </c>
+      <c r="Z2">
+        <v>1.8</v>
+      </c>
+      <c r="AA2">
+        <v>0.5</v>
+      </c>
+      <c r="AC2">
+        <v>2.8</v>
+      </c>
+      <c r="AD2">
+        <v>21.4</v>
+      </c>
+      <c r="AG2">
+        <v>99</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>16</v>
+      </c>
+      <c r="J3">
+        <v>16.8</v>
+      </c>
+      <c r="K3">
+        <v>30.8</v>
+      </c>
+      <c r="L3">
+        <v>0.545</v>
+      </c>
+      <c r="P3">
+        <v>16.8</v>
+      </c>
+      <c r="Q3">
+        <v>30.8</v>
+      </c>
+      <c r="R3">
+        <v>0.545</v>
+      </c>
+      <c r="S3">
+        <v>11.2</v>
+      </c>
+      <c r="T3">
+        <v>11.2</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>8.4</v>
+      </c>
+      <c r="W3">
+        <v>5.6</v>
+      </c>
+      <c r="X3">
+        <v>14</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>2.8</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>5.6</v>
+      </c>
+      <c r="AD3">
+        <v>44.7</v>
+      </c>
+      <c r="AG3">
+        <v>99</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>-158</v>
+      </c>
+      <c r="J4">
+        <v>8.100000000000001</v>
+      </c>
+      <c r="K4">
+        <v>5.300000000000001</v>
+      </c>
+      <c r="L4">
+        <v>0.205</v>
+      </c>
+      <c r="P4">
+        <v>8.100000000000001</v>
+      </c>
+      <c r="Q4">
+        <v>5.300000000000001</v>
+      </c>
+      <c r="R4">
+        <v>0.205</v>
+      </c>
+      <c r="S4">
+        <v>7.1</v>
+      </c>
+      <c r="T4">
+        <v>6.6</v>
+      </c>
+      <c r="U4">
+        <v>0.111</v>
+      </c>
+      <c r="V4">
+        <v>3.800000000000001</v>
+      </c>
+      <c r="W4">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="X4">
+        <v>4.1</v>
+      </c>
+      <c r="Y4">
+        <v>-4.8</v>
+      </c>
+      <c r="Z4">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AA4">
+        <v>-0.5</v>
+      </c>
+      <c r="AC4">
+        <v>2.8</v>
+      </c>
+      <c r="AD4">
+        <v>23.3</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5">
+        <v>53</v>
+      </c>
+      <c r="I5">
+        <v>827</v>
+      </c>
+      <c r="J5">
+        <v>10.8</v>
+      </c>
+      <c r="K5">
+        <v>24.8</v>
+      </c>
+      <c r="L5">
+        <v>0.433</v>
+      </c>
+      <c r="P5">
+        <v>10.8</v>
+      </c>
+      <c r="Q5">
+        <v>24.8</v>
+      </c>
+      <c r="R5">
+        <v>0.433</v>
+      </c>
+      <c r="S5">
+        <v>4.9</v>
+      </c>
+      <c r="T5">
+        <v>5.6</v>
+      </c>
+      <c r="U5">
+        <v>0.889</v>
+      </c>
+      <c r="V5">
+        <v>2.6</v>
+      </c>
+      <c r="W5">
+        <v>3.4</v>
+      </c>
+      <c r="X5">
+        <v>6</v>
+      </c>
+      <c r="Y5">
+        <v>4</v>
+      </c>
+      <c r="Z5">
+        <v>1.2</v>
+      </c>
+      <c r="AA5">
+        <v>0.8</v>
+      </c>
+      <c r="AB5">
+        <v>4.3</v>
+      </c>
+      <c r="AC5">
+        <v>3.8</v>
+      </c>
+      <c r="AD5">
+        <v>26.5</v>
+      </c>
+      <c r="AF5">
+        <v>96</v>
+      </c>
+      <c r="AG5">
+        <v>103</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>50</v>
+      </c>
+      <c r="J6">
+        <v>12.1</v>
+      </c>
+      <c r="K6">
+        <v>25.1</v>
+      </c>
+      <c r="L6">
+        <v>0.481</v>
+      </c>
+      <c r="P6">
+        <v>12.1</v>
+      </c>
+      <c r="Q6">
+        <v>25.1</v>
+      </c>
+      <c r="R6">
+        <v>0.481</v>
+      </c>
+      <c r="S6">
+        <v>5.6</v>
+      </c>
+      <c r="T6">
+        <v>5.6</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>2.8</v>
+      </c>
+      <c r="W6">
+        <v>1.9</v>
+      </c>
+      <c r="X6">
+        <v>4.6</v>
+      </c>
+      <c r="Y6">
+        <v>4.6</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>2.8</v>
+      </c>
+      <c r="AC6">
+        <v>0.9</v>
+      </c>
+      <c r="AD6">
+        <v>29.7</v>
+      </c>
+      <c r="AF6">
+        <v>115</v>
+      </c>
+      <c r="AG6">
+        <v>122</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>-777</v>
+      </c>
+      <c r="J7">
+        <v>1.299999999999999</v>
+      </c>
+      <c r="K7">
+        <v>0.3000000000000007</v>
+      </c>
+      <c r="L7">
+        <v>0.04800000000000004</v>
+      </c>
+      <c r="P7">
+        <v>1.299999999999999</v>
+      </c>
+      <c r="Q7">
+        <v>0.3000000000000007</v>
+      </c>
+      <c r="R7">
+        <v>0.04800000000000004</v>
+      </c>
+      <c r="S7">
+        <v>0.6999999999999993</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0.111</v>
+      </c>
+      <c r="V7">
+        <v>0.1999999999999997</v>
+      </c>
+      <c r="W7">
+        <v>-1.5</v>
+      </c>
+      <c r="X7">
+        <v>-1.4</v>
+      </c>
+      <c r="Y7">
+        <v>0.5999999999999996</v>
+      </c>
+      <c r="Z7">
+        <v>-1.2</v>
+      </c>
+      <c r="AA7">
+        <v>-0.8</v>
+      </c>
+      <c r="AB7">
+        <v>-1.5</v>
+      </c>
+      <c r="AC7">
+        <v>-2.9</v>
+      </c>
+      <c r="AD7">
+        <v>3.199999999999999</v>
+      </c>
+      <c r="AF7">
+        <v>19</v>
+      </c>
+      <c r="AG7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8">
+        <v>78</v>
+      </c>
+      <c r="I8">
+        <v>1686</v>
+      </c>
+      <c r="J8">
+        <v>10.8</v>
+      </c>
+      <c r="K8">
+        <v>22.3</v>
+      </c>
+      <c r="L8">
+        <v>0.483</v>
+      </c>
+      <c r="P8">
+        <v>10.8</v>
+      </c>
+      <c r="Q8">
+        <v>22.3</v>
+      </c>
+      <c r="R8">
+        <v>0.483</v>
+      </c>
+      <c r="S8">
+        <v>4.5</v>
+      </c>
+      <c r="T8">
+        <v>5.4</v>
+      </c>
+      <c r="U8">
+        <v>0.836</v>
+      </c>
+      <c r="V8">
+        <v>2.1</v>
+      </c>
+      <c r="W8">
+        <v>2.5</v>
+      </c>
+      <c r="X8">
+        <v>4.6</v>
+      </c>
+      <c r="Y8">
+        <v>5.1</v>
+      </c>
+      <c r="Z8">
+        <v>1.6</v>
+      </c>
+      <c r="AA8">
+        <v>0.8</v>
+      </c>
+      <c r="AB8">
+        <v>3.7</v>
+      </c>
+      <c r="AC8">
+        <v>3.4</v>
+      </c>
+      <c r="AD8">
+        <v>26.1</v>
+      </c>
+      <c r="AF8">
+        <v>106</v>
+      </c>
+      <c r="AG8">
+        <v>108</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9">
+        <v>49</v>
+      </c>
+      <c r="I9">
+        <v>1110</v>
+      </c>
+      <c r="J9">
+        <v>11.6</v>
+      </c>
+      <c r="K9">
+        <v>24</v>
+      </c>
+      <c r="L9">
+        <v>0.483</v>
+      </c>
+      <c r="P9">
+        <v>11.6</v>
+      </c>
+      <c r="Q9">
+        <v>24</v>
+      </c>
+      <c r="R9">
+        <v>0.483</v>
+      </c>
+      <c r="S9">
+        <v>4.3</v>
+      </c>
+      <c r="T9">
+        <v>5.3</v>
+      </c>
+      <c r="U9">
+        <v>0.8240000000000001</v>
+      </c>
+      <c r="V9">
+        <v>1.9</v>
+      </c>
+      <c r="W9">
+        <v>2.2</v>
+      </c>
+      <c r="X9">
+        <v>4</v>
+      </c>
+      <c r="Y9">
+        <v>4.3</v>
+      </c>
+      <c r="Z9">
+        <v>1.7</v>
+      </c>
+      <c r="AA9">
+        <v>0.7</v>
+      </c>
+      <c r="AB9">
+        <v>3.7</v>
+      </c>
+      <c r="AC9">
+        <v>3.4</v>
+      </c>
+      <c r="AD9">
+        <v>27.5</v>
+      </c>
+      <c r="AF9">
+        <v>104</v>
+      </c>
+      <c r="AG9">
+        <v>110</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10">
+        <v>29</v>
+      </c>
+      <c r="I10">
+        <v>576</v>
+      </c>
+      <c r="J10">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="K10">
+        <v>19.1</v>
+      </c>
+      <c r="L10">
+        <v>0.481</v>
+      </c>
+      <c r="P10">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Q10">
+        <v>19.1</v>
+      </c>
+      <c r="R10">
+        <v>0.481</v>
+      </c>
+      <c r="S10">
+        <v>4.9</v>
+      </c>
+      <c r="T10">
+        <v>5.7</v>
+      </c>
+      <c r="U10">
+        <v>0.857</v>
+      </c>
+      <c r="V10">
+        <v>2.6</v>
+      </c>
+      <c r="W10">
+        <v>3.2</v>
+      </c>
+      <c r="X10">
+        <v>5.8</v>
+      </c>
+      <c r="Y10">
+        <v>6.6</v>
+      </c>
+      <c r="Z10">
+        <v>1.5</v>
+      </c>
+      <c r="AA10">
+        <v>1.1</v>
+      </c>
+      <c r="AB10">
+        <v>3.8</v>
+      </c>
+      <c r="AC10">
+        <v>3.4</v>
+      </c>
+      <c r="AD10">
+        <v>23.3</v>
+      </c>
+      <c r="AF10">
+        <v>109</v>
+      </c>
+      <c r="AG10">
+        <v>106</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+      <c r="I11">
+        <v>244</v>
+      </c>
+      <c r="J11">
+        <v>11.5</v>
+      </c>
+      <c r="K11">
+        <v>23.6</v>
+      </c>
+      <c r="L11">
+        <v>0.487</v>
+      </c>
+      <c r="P11">
+        <v>11.5</v>
+      </c>
+      <c r="Q11">
+        <v>23.6</v>
+      </c>
+      <c r="R11">
+        <v>0.487</v>
+      </c>
+      <c r="S11">
+        <v>5.4</v>
+      </c>
+      <c r="T11">
+        <v>5.9</v>
+      </c>
+      <c r="U11">
+        <v>0.929</v>
+      </c>
+      <c r="V11">
+        <v>2.3</v>
+      </c>
+      <c r="W11">
+        <v>4.4</v>
+      </c>
+      <c r="X11">
+        <v>6.7</v>
+      </c>
+      <c r="Y11">
+        <v>6.1</v>
+      </c>
+      <c r="Z11">
+        <v>1.5</v>
+      </c>
+      <c r="AA11">
+        <v>0.4</v>
+      </c>
+      <c r="AB11">
+        <v>2.5</v>
+      </c>
+      <c r="AC11">
+        <v>3.1</v>
+      </c>
+      <c r="AD11">
+        <v>28.4</v>
+      </c>
+      <c r="AF11">
+        <v>117</v>
+      </c>
+      <c r="AG11">
+        <v>107</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="I12">
+        <v>-1442</v>
+      </c>
+      <c r="J12">
+        <v>0.6999999999999993</v>
+      </c>
+      <c r="K12">
+        <v>1.300000000000001</v>
+      </c>
+      <c r="L12">
+        <v>0.004000000000000059</v>
+      </c>
+      <c r="P12">
+        <v>0.6999999999999993</v>
+      </c>
+      <c r="Q12">
+        <v>1.300000000000001</v>
+      </c>
+      <c r="R12">
+        <v>0.004000000000000059</v>
+      </c>
+      <c r="S12">
+        <v>0.9000000000000004</v>
+      </c>
+      <c r="T12">
+        <v>0.5</v>
+      </c>
+      <c r="U12">
+        <v>0.09300000000000008</v>
+      </c>
+      <c r="V12">
+        <v>0.1999999999999997</v>
+      </c>
+      <c r="W12">
+        <v>1.9</v>
+      </c>
+      <c r="X12">
+        <v>2.100000000000001</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
+      <c r="Z12">
+        <v>-0.1000000000000001</v>
+      </c>
+      <c r="AA12">
+        <v>-0.4</v>
+      </c>
+      <c r="AB12">
+        <v>-1.2</v>
+      </c>
+      <c r="AC12">
+        <v>-0.2999999999999998</v>
+      </c>
+      <c r="AD12">
+        <v>2.299999999999997</v>
+      </c>
+      <c r="AF12">
+        <v>11</v>
+      </c>
+      <c r="AG12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13">
+        <v>76</v>
+      </c>
+      <c r="I13">
+        <v>2122</v>
+      </c>
+      <c r="J13">
+        <v>9.9</v>
+      </c>
+      <c r="K13">
+        <v>21.4</v>
+      </c>
+      <c r="L13">
+        <v>0.464</v>
+      </c>
+      <c r="M13">
+        <v>0.6</v>
+      </c>
+      <c r="N13">
+        <v>1.9</v>
+      </c>
+      <c r="O13">
+        <v>0.293</v>
+      </c>
+      <c r="P13">
+        <v>9.4</v>
+      </c>
+      <c r="Q13">
+        <v>19.5</v>
+      </c>
+      <c r="R13">
+        <v>0.481</v>
+      </c>
+      <c r="S13">
+        <v>4</v>
+      </c>
+      <c r="T13">
+        <v>4.5</v>
+      </c>
+      <c r="U13">
+        <v>0.872</v>
+      </c>
+      <c r="V13">
+        <v>1.6</v>
+      </c>
+      <c r="W13">
+        <v>2.9</v>
+      </c>
+      <c r="X13">
+        <v>4.5</v>
+      </c>
+      <c r="Y13">
+        <v>6.8</v>
+      </c>
+      <c r="Z13">
+        <v>1.7</v>
+      </c>
+      <c r="AA13">
+        <v>0.5</v>
+      </c>
+      <c r="AB13">
+        <v>3.8</v>
+      </c>
+      <c r="AC13">
+        <v>2.3</v>
+      </c>
+      <c r="AD13">
+        <v>24.4</v>
+      </c>
+      <c r="AF13">
+        <v>104</v>
+      </c>
+      <c r="AG13">
+        <v>111</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14">
+        <v>21</v>
+      </c>
+      <c r="I14">
+        <v>404</v>
+      </c>
+      <c r="J14">
+        <v>7.9</v>
+      </c>
+      <c r="K14">
+        <v>19.3</v>
+      </c>
+      <c r="L14">
+        <v>0.41</v>
+      </c>
+      <c r="M14">
+        <v>0.1</v>
+      </c>
+      <c r="N14">
+        <v>1.1</v>
+      </c>
+      <c r="O14">
+        <v>0.111</v>
+      </c>
+      <c r="P14">
+        <v>7.8</v>
+      </c>
+      <c r="Q14">
+        <v>18.3</v>
+      </c>
+      <c r="R14">
+        <v>0.428</v>
+      </c>
+      <c r="S14">
+        <v>5.3</v>
+      </c>
+      <c r="T14">
+        <v>6.1</v>
+      </c>
+      <c r="U14">
+        <v>0.863</v>
+      </c>
+      <c r="V14">
+        <v>2.8</v>
+      </c>
+      <c r="W14">
+        <v>2.3</v>
+      </c>
+      <c r="X14">
+        <v>5</v>
+      </c>
+      <c r="Y14">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Z14">
+        <v>2.3</v>
+      </c>
+      <c r="AA14">
+        <v>1.1</v>
+      </c>
+      <c r="AB14">
+        <v>4.1</v>
+      </c>
+      <c r="AC14">
+        <v>2.3</v>
+      </c>
+      <c r="AD14">
+        <v>21.3</v>
+      </c>
+      <c r="AF14">
+        <v>104</v>
+      </c>
+      <c r="AG14">
+        <v>104</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15">
+        <v>55</v>
+      </c>
+      <c r="I15">
+        <v>1718</v>
+      </c>
+      <c r="J15">
+        <v>10.4</v>
+      </c>
+      <c r="K15">
+        <v>21.9</v>
+      </c>
+      <c r="L15">
+        <v>0.476</v>
+      </c>
+      <c r="M15">
+        <v>0.7</v>
+      </c>
+      <c r="N15">
+        <v>2.1</v>
+      </c>
+      <c r="O15">
+        <v>0.315</v>
+      </c>
+      <c r="P15">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Q15">
+        <v>19.8</v>
+      </c>
+      <c r="R15">
+        <v>0.493</v>
+      </c>
+      <c r="S15">
+        <v>3.6</v>
+      </c>
+      <c r="T15">
+        <v>4.2</v>
+      </c>
+      <c r="U15">
+        <v>0.8759999999999999</v>
+      </c>
+      <c r="V15">
+        <v>1.3</v>
+      </c>
+      <c r="W15">
+        <v>3</v>
+      </c>
+      <c r="X15">
+        <v>4.4</v>
+      </c>
+      <c r="Y15">
+        <v>6.3</v>
+      </c>
+      <c r="Z15">
+        <v>1.5</v>
+      </c>
+      <c r="AA15">
+        <v>0.4</v>
+      </c>
+      <c r="AB15">
+        <v>3.7</v>
+      </c>
+      <c r="AC15">
+        <v>2.3</v>
+      </c>
+      <c r="AD15">
+        <v>25.1</v>
+      </c>
+      <c r="AF15">
+        <v>104</v>
+      </c>
+      <c r="AG15">
+        <v>113</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17">
+        <v>50</v>
+      </c>
+      <c r="I17">
+        <v>980</v>
+      </c>
+      <c r="J17">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="K17">
+        <v>19.2</v>
+      </c>
+      <c r="L17">
+        <v>0.452</v>
+      </c>
+      <c r="M17">
+        <v>0.1</v>
+      </c>
+      <c r="N17">
+        <v>1.1</v>
+      </c>
+      <c r="O17">
+        <v>0.111</v>
+      </c>
+      <c r="P17">
+        <v>8.6</v>
+      </c>
+      <c r="Q17">
+        <v>18.8</v>
+      </c>
+      <c r="R17">
+        <v>0.46</v>
+      </c>
+      <c r="S17">
+        <v>5</v>
+      </c>
+      <c r="T17">
+        <v>5.9</v>
+      </c>
+      <c r="U17">
+        <v>0.86</v>
+      </c>
+      <c r="V17">
+        <v>2.7</v>
+      </c>
+      <c r="W17">
+        <v>2.8</v>
+      </c>
+      <c r="X17">
+        <v>5.5</v>
+      </c>
+      <c r="Y17">
+        <v>7.4</v>
+      </c>
+      <c r="Z17">
+        <v>1.8</v>
+      </c>
+      <c r="AA17">
+        <v>1.1</v>
+      </c>
+      <c r="AB17">
+        <v>3.9</v>
+      </c>
+      <c r="AC17">
+        <v>3</v>
+      </c>
+      <c r="AD17">
+        <v>22.5</v>
+      </c>
+      <c r="AF17">
+        <v>107</v>
+      </c>
+      <c r="AG17">
+        <v>105</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18">
+        <v>9</v>
+      </c>
+      <c r="I18">
+        <v>244</v>
+      </c>
+      <c r="J18">
+        <v>11.5</v>
+      </c>
+      <c r="K18">
+        <v>23.6</v>
+      </c>
+      <c r="L18">
+        <v>0.487</v>
+      </c>
+      <c r="P18">
+        <v>11.5</v>
+      </c>
+      <c r="Q18">
+        <v>23.6</v>
+      </c>
+      <c r="R18">
+        <v>0.487</v>
+      </c>
+      <c r="S18">
+        <v>5.4</v>
+      </c>
+      <c r="T18">
+        <v>5.9</v>
+      </c>
+      <c r="U18">
+        <v>0.929</v>
+      </c>
+      <c r="V18">
+        <v>2.3</v>
+      </c>
+      <c r="W18">
+        <v>4.4</v>
+      </c>
+      <c r="X18">
+        <v>6.7</v>
+      </c>
+      <c r="Y18">
+        <v>6.1</v>
+      </c>
+      <c r="Z18">
+        <v>1.5</v>
+      </c>
+      <c r="AA18">
+        <v>0.4</v>
+      </c>
+      <c r="AB18">
+        <v>2.5</v>
+      </c>
+      <c r="AC18">
+        <v>3.1</v>
+      </c>
+      <c r="AD18">
+        <v>28.4</v>
+      </c>
+      <c r="AF18">
+        <v>117</v>
+      </c>
+      <c r="AG18">
+        <v>107</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="I19">
+        <v>-736</v>
+      </c>
+      <c r="J19">
+        <v>2.800000000000001</v>
+      </c>
+      <c r="K19">
+        <v>4.400000000000002</v>
+      </c>
+      <c r="L19">
+        <v>0.03500000000000003</v>
+      </c>
+      <c r="P19">
+        <v>2.9</v>
+      </c>
+      <c r="Q19">
+        <v>4.800000000000001</v>
+      </c>
+      <c r="R19">
+        <v>0.02700000000000002</v>
+      </c>
+      <c r="S19">
+        <v>0.4000000000000004</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0.06900000000000006</v>
+      </c>
+      <c r="V19">
+        <v>-0.4000000000000004</v>
+      </c>
+      <c r="W19">
+        <v>1.600000000000001</v>
+      </c>
+      <c r="X19">
+        <v>1.2</v>
+      </c>
+      <c r="Y19">
+        <v>-1.300000000000001</v>
+      </c>
+      <c r="Z19">
+        <v>-0.3</v>
+      </c>
+      <c r="AA19">
+        <v>-0.7000000000000001</v>
+      </c>
+      <c r="AB19">
+        <v>-1.4</v>
+      </c>
+      <c r="AC19">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="AD19">
+        <v>5.899999999999999</v>
+      </c>
+      <c r="AF19">
+        <v>10</v>
+      </c>
+      <c r="AG19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20">
+        <v>102</v>
+      </c>
+      <c r="I20">
+        <v>1937</v>
+      </c>
+      <c r="J20">
+        <v>11.2</v>
+      </c>
+      <c r="K20">
+        <v>24.3</v>
+      </c>
+      <c r="L20">
+        <v>0.461</v>
+      </c>
+      <c r="P20">
+        <v>11.2</v>
+      </c>
+      <c r="Q20">
+        <v>24.3</v>
+      </c>
+      <c r="R20">
+        <v>0.461</v>
+      </c>
+      <c r="S20">
+        <v>4.6</v>
+      </c>
+      <c r="T20">
+        <v>5.4</v>
+      </c>
+      <c r="U20">
+        <v>0.853</v>
+      </c>
+      <c r="V20">
+        <v>2.2</v>
+      </c>
+      <c r="W20">
+        <v>2.7</v>
+      </c>
+      <c r="X20">
+        <v>4.9</v>
+      </c>
+      <c r="Y20">
+        <v>4.2</v>
+      </c>
+      <c r="Z20">
+        <v>1.5</v>
+      </c>
+      <c r="AA20">
+        <v>0.7</v>
+      </c>
+      <c r="AB20">
+        <v>3.9</v>
+      </c>
+      <c r="AC20">
+        <v>3.5</v>
+      </c>
+      <c r="AD20">
+        <v>27.1</v>
+      </c>
+      <c r="AF20">
+        <v>100</v>
+      </c>
+      <c r="AG20">
+        <v>107</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>50</v>
+      </c>
+      <c r="J21">
+        <v>12.1</v>
+      </c>
+      <c r="K21">
+        <v>25.1</v>
+      </c>
+      <c r="L21">
+        <v>0.481</v>
+      </c>
+      <c r="P21">
+        <v>12.1</v>
+      </c>
+      <c r="Q21">
+        <v>25.1</v>
+      </c>
+      <c r="R21">
+        <v>0.481</v>
+      </c>
+      <c r="S21">
+        <v>5.6</v>
+      </c>
+      <c r="T21">
+        <v>5.6</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <v>2.8</v>
+      </c>
+      <c r="W21">
+        <v>1.9</v>
+      </c>
+      <c r="X21">
+        <v>4.6</v>
+      </c>
+      <c r="Y21">
+        <v>4.6</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>2.8</v>
+      </c>
+      <c r="AC21">
+        <v>0.9</v>
+      </c>
+      <c r="AD21">
+        <v>29.7</v>
+      </c>
+      <c r="AF21">
+        <v>115</v>
+      </c>
+      <c r="AG21">
+        <v>122</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="I22">
+        <v>-1887</v>
+      </c>
+      <c r="J22">
+        <v>0.9000000000000004</v>
+      </c>
+      <c r="K22">
+        <v>0.8000000000000007</v>
+      </c>
+      <c r="L22">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P22">
+        <v>0.9000000000000004</v>
+      </c>
+      <c r="Q22">
+        <v>0.8000000000000007</v>
+      </c>
+      <c r="R22">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>0.1999999999999993</v>
+      </c>
+      <c r="U22">
+        <v>0.147</v>
+      </c>
+      <c r="V22">
+        <v>0.5999999999999996</v>
+      </c>
+      <c r="W22">
+        <v>-0.8000000000000003</v>
+      </c>
+      <c r="X22">
+        <v>-0.3000000000000007</v>
+      </c>
+      <c r="Y22">
+        <v>0.3999999999999995</v>
+      </c>
+      <c r="Z22">
+        <v>-1.5</v>
+      </c>
+      <c r="AA22">
+        <v>-0.7</v>
+      </c>
+      <c r="AB22">
+        <v>-1.1</v>
+      </c>
+      <c r="AC22">
+        <v>-2.6</v>
+      </c>
+      <c r="AD22">
+        <v>2.599999999999998</v>
+      </c>
+      <c r="AF22">
+        <v>15</v>
+      </c>
+      <c r="AG22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23">
+        <v>32</v>
+      </c>
+      <c r="I23">
+        <v>174</v>
+      </c>
+      <c r="J23">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="K23">
+        <v>25.5</v>
+      </c>
+      <c r="L23">
+        <v>0.34</v>
+      </c>
+      <c r="P23">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Q23">
+        <v>25.5</v>
+      </c>
+      <c r="R23">
+        <v>0.34</v>
+      </c>
+      <c r="S23">
+        <v>4.1</v>
+      </c>
+      <c r="T23">
+        <v>4.6</v>
+      </c>
+      <c r="U23">
+        <v>0.889</v>
+      </c>
+      <c r="V23">
+        <v>4.6</v>
+      </c>
+      <c r="W23">
+        <v>5.3</v>
+      </c>
+      <c r="X23">
+        <v>9.9</v>
+      </c>
+      <c r="Y23">
+        <v>4.8</v>
+      </c>
+      <c r="Z23">
+        <v>1.8</v>
+      </c>
+      <c r="AA23">
+        <v>0.5</v>
+      </c>
+      <c r="AC23">
+        <v>2.8</v>
+      </c>
+      <c r="AD23">
+        <v>21.4</v>
+      </c>
+      <c r="AG23">
+        <v>99</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="I24">
+        <v>16</v>
+      </c>
+      <c r="J24">
+        <v>16.8</v>
+      </c>
+      <c r="K24">
+        <v>30.8</v>
+      </c>
+      <c r="L24">
+        <v>0.545</v>
+      </c>
+      <c r="P24">
+        <v>16.8</v>
+      </c>
+      <c r="Q24">
+        <v>30.8</v>
+      </c>
+      <c r="R24">
+        <v>0.545</v>
+      </c>
+      <c r="S24">
+        <v>11.2</v>
+      </c>
+      <c r="T24">
+        <v>11.2</v>
+      </c>
+      <c r="U24">
+        <v>1</v>
+      </c>
+      <c r="V24">
+        <v>8.4</v>
+      </c>
+      <c r="W24">
+        <v>5.6</v>
+      </c>
+      <c r="X24">
+        <v>14</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>2.8</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>5.6</v>
+      </c>
+      <c r="AD24">
+        <v>44.7</v>
+      </c>
+      <c r="AG24">
+        <v>99</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="I25">
+        <v>-158</v>
+      </c>
+      <c r="J25">
+        <v>8.100000000000001</v>
+      </c>
+      <c r="K25">
+        <v>5.300000000000001</v>
+      </c>
+      <c r="L25">
+        <v>0.205</v>
+      </c>
+      <c r="P25">
+        <v>8.100000000000001</v>
+      </c>
+      <c r="Q25">
+        <v>5.300000000000001</v>
+      </c>
+      <c r="R25">
+        <v>0.205</v>
+      </c>
+      <c r="S25">
+        <v>7.1</v>
+      </c>
+      <c r="T25">
+        <v>6.6</v>
+      </c>
+      <c r="U25">
+        <v>0.111</v>
+      </c>
+      <c r="V25">
+        <v>3.800000000000001</v>
+      </c>
+      <c r="W25">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="X25">
+        <v>4.1</v>
+      </c>
+      <c r="Y25">
+        <v>-4.8</v>
+      </c>
+      <c r="Z25">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AA25">
+        <v>-0.5</v>
+      </c>
+      <c r="AC25">
+        <v>2.8</v>
+      </c>
+      <c r="AD25">
+        <v>23.3</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" t="s">
+        <v>47</v>
+      </c>
+      <c r="G26">
+        <v>55</v>
+      </c>
+      <c r="I26">
+        <v>1718</v>
+      </c>
+      <c r="J26">
+        <v>10.4</v>
+      </c>
+      <c r="K26">
+        <v>21.9</v>
+      </c>
+      <c r="L26">
+        <v>0.476</v>
+      </c>
+      <c r="M26">
+        <v>0.7</v>
+      </c>
+      <c r="N26">
+        <v>2.1</v>
+      </c>
+      <c r="O26">
+        <v>0.315</v>
+      </c>
+      <c r="P26">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Q26">
+        <v>19.8</v>
+      </c>
+      <c r="R26">
+        <v>0.493</v>
+      </c>
+      <c r="S26">
+        <v>3.6</v>
+      </c>
+      <c r="T26">
+        <v>4.2</v>
+      </c>
+      <c r="U26">
+        <v>0.8759999999999999</v>
+      </c>
+      <c r="V26">
+        <v>1.3</v>
+      </c>
+      <c r="W26">
+        <v>3</v>
+      </c>
+      <c r="X26">
+        <v>4.4</v>
+      </c>
+      <c r="Y26">
+        <v>6.3</v>
+      </c>
+      <c r="Z26">
+        <v>1.5</v>
+      </c>
+      <c r="AA26">
+        <v>0.4</v>
+      </c>
+      <c r="AB26">
+        <v>3.7</v>
+      </c>
+      <c r="AC26">
+        <v>2.3</v>
+      </c>
+      <c r="AD26">
+        <v>25.1</v>
+      </c>
+      <c r="AF26">
+        <v>104</v>
+      </c>
+      <c r="AG26">
+        <v>113</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" t="s">
+        <v>47</v>
+      </c>
+      <c r="G28">
+        <v>239</v>
+      </c>
+      <c r="I28">
+        <v>4809</v>
+      </c>
+      <c r="J28">
+        <v>10.3</v>
+      </c>
+      <c r="K28">
+        <v>22.5</v>
+      </c>
+      <c r="L28">
+        <v>0.459</v>
+      </c>
+      <c r="M28">
+        <v>0.6</v>
+      </c>
+      <c r="N28">
+        <v>1.9</v>
+      </c>
+      <c r="O28">
+        <v>0.293</v>
+      </c>
+      <c r="P28">
+        <v>10.1</v>
+      </c>
+      <c r="Q28">
+        <v>21.7</v>
+      </c>
+      <c r="R28">
+        <v>0.466</v>
+      </c>
+      <c r="S28">
+        <v>4.3</v>
+      </c>
+      <c r="T28">
+        <v>5</v>
+      </c>
+      <c r="U28">
+        <v>0.862</v>
+      </c>
+      <c r="V28">
+        <v>2.1</v>
+      </c>
+      <c r="W28">
+        <v>2.9</v>
+      </c>
+      <c r="X28">
+        <v>5</v>
+      </c>
+      <c r="Y28">
+        <v>5.6</v>
+      </c>
+      <c r="Z28">
+        <v>1.6</v>
+      </c>
+      <c r="AA28">
+        <v>0.7</v>
+      </c>
+      <c r="AB28">
+        <v>3.7</v>
+      </c>
+      <c r="AC28">
+        <v>2.9</v>
+      </c>
+      <c r="AD28">
+        <v>25.2</v>
+      </c>
+      <c r="AF28">
+        <v>103</v>
+      </c>
+      <c r="AG28">
+        <v>108</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29">
+        <v>16</v>
+      </c>
+      <c r="I29">
+        <v>310</v>
+      </c>
+      <c r="J29">
+        <v>11.9</v>
+      </c>
+      <c r="K29">
+        <v>24.3</v>
+      </c>
+      <c r="L29">
+        <v>0.49</v>
+      </c>
+      <c r="P29">
+        <v>11.9</v>
+      </c>
+      <c r="Q29">
+        <v>24.3</v>
+      </c>
+      <c r="R29">
+        <v>0.49</v>
+      </c>
+      <c r="S29">
+        <v>5.8</v>
+      </c>
+      <c r="T29">
+        <v>6.1</v>
+      </c>
+      <c r="U29">
+        <v>0.9470000000000001</v>
+      </c>
+      <c r="V29">
+        <v>2.7</v>
+      </c>
+      <c r="W29">
+        <v>4</v>
+      </c>
+      <c r="X29">
+        <v>6.8</v>
+      </c>
+      <c r="Y29">
+        <v>5.5</v>
+      </c>
+      <c r="Z29">
+        <v>1.3</v>
+      </c>
+      <c r="AA29">
+        <v>0.3</v>
+      </c>
+      <c r="AB29">
+        <v>2.4</v>
+      </c>
+      <c r="AC29">
+        <v>2.9</v>
+      </c>
+      <c r="AD29">
+        <v>29.6</v>
+      </c>
+      <c r="AF29">
+        <v>117</v>
+      </c>
+      <c r="AG29">
+        <v>109</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="I30">
+        <v>-4499</v>
+      </c>
+      <c r="J30">
+        <v>1.6</v>
+      </c>
+      <c r="K30">
+        <v>1.800000000000001</v>
+      </c>
+      <c r="L30">
+        <v>0.03100000000000003</v>
+      </c>
+      <c r="P30">
+        <v>1.800000000000001</v>
+      </c>
+      <c r="Q30">
+        <v>2.600000000000001</v>
+      </c>
+      <c r="R30">
+        <v>0.02399999999999997</v>
+      </c>
+      <c r="S30">
+        <v>1.5</v>
+      </c>
+      <c r="T30">
+        <v>1.1</v>
+      </c>
+      <c r="U30">
+        <v>0.08500000000000008</v>
+      </c>
+      <c r="V30">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="W30">
+        <v>1.1</v>
+      </c>
+      <c r="X30">
+        <v>1.8</v>
+      </c>
+      <c r="Y30">
+        <v>-0.09999999999999964</v>
+      </c>
+      <c r="Z30">
+        <v>-0.3</v>
+      </c>
+      <c r="AA30">
+        <v>-0.4</v>
+      </c>
+      <c r="AB30">
+        <v>-1.3</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>4.400000000000002</v>
+      </c>
+      <c r="AF30">
+        <v>14</v>
+      </c>
+      <c r="AG30">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2912,70 +7415,70 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="AA1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>30</v>

--- a/output/furlote01.xlsx
+++ b/output/furlote01.xlsx
@@ -25,7 +25,7 @@
     <t>Age</t>
   </si>
   <si>
-    <t>Tm</t>
+    <t>Team</t>
   </si>
   <si>
     <t>Lg</t>
@@ -867,9 +867,6 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="I4">
-        <v>-2.2</v>
-      </c>
       <c r="J4">
         <v>0.09999999999999987</v>
       </c>
@@ -1101,9 +1098,6 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="I7">
-        <v>9.4</v>
-      </c>
       <c r="J7">
         <v>2.9</v>
       </c>
@@ -1111,7 +1105,7 @@
         <v>5.1</v>
       </c>
       <c r="L7">
-        <v>0.04800000000000004</v>
+        <v>0.04799999999999999</v>
       </c>
       <c r="P7">
         <v>2.9</v>
@@ -1120,10 +1114,10 @@
         <v>5.1</v>
       </c>
       <c r="R7">
-        <v>0.04800000000000004</v>
+        <v>0.04799999999999999</v>
       </c>
       <c r="S7">
-        <v>0.04800000000000004</v>
+        <v>0.04799999999999999</v>
       </c>
       <c r="T7">
         <v>1.3</v>
@@ -1301,7 +1295,7 @@
         <v>2.6</v>
       </c>
       <c r="V9">
-        <v>0.8240000000000001</v>
+        <v>0.824</v>
       </c>
       <c r="W9">
         <v>0.9</v>
@@ -1510,9 +1504,6 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="I12">
-        <v>5.5</v>
-      </c>
       <c r="J12">
         <v>1.1</v>
       </c>
@@ -1520,7 +1511,7 @@
         <v>2.299999999999999</v>
       </c>
       <c r="L12">
-        <v>0.004000000000000059</v>
+        <v>0.004000000000000004</v>
       </c>
       <c r="P12">
         <v>1.1</v>
@@ -1529,10 +1520,10 @@
         <v>2.299999999999999</v>
       </c>
       <c r="R12">
-        <v>0.004000000000000059</v>
+        <v>0.004000000000000004</v>
       </c>
       <c r="S12">
-        <v>0.004000000000000059</v>
+        <v>0.004000000000000004</v>
       </c>
       <c r="T12">
         <v>0.7999999999999998</v>
@@ -1823,7 +1814,7 @@
         <v>2.6</v>
       </c>
       <c r="V15">
-        <v>0.8759999999999999</v>
+        <v>0.876</v>
       </c>
       <c r="W15">
         <v>0.9</v>
@@ -2034,9 +2025,6 @@
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="I19">
-        <v>7.5</v>
-      </c>
       <c r="J19">
         <v>2.5</v>
       </c>
@@ -2044,7 +2032,7 @@
         <v>4.699999999999999</v>
       </c>
       <c r="L19">
-        <v>0.03500000000000003</v>
+        <v>0.03499999999999998</v>
       </c>
       <c r="P19">
         <v>2.5</v>
@@ -2053,10 +2041,10 @@
         <v>4.899999999999999</v>
       </c>
       <c r="R19">
-        <v>0.02700000000000002</v>
+        <v>0.02699999999999997</v>
       </c>
       <c r="S19">
-        <v>0.03400000000000009</v>
+        <v>0.03399999999999997</v>
       </c>
       <c r="T19">
         <v>0.7999999999999998</v>
@@ -2259,9 +2247,6 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="I22">
-        <v>6</v>
-      </c>
       <c r="J22">
         <v>1.9</v>
       </c>
@@ -2269,7 +2254,7 @@
         <v>3.6</v>
       </c>
       <c r="L22">
-        <v>0.02000000000000002</v>
+        <v>0.01999999999999996</v>
       </c>
       <c r="P22">
         <v>1.9</v>
@@ -2278,10 +2263,10 @@
         <v>3.6</v>
       </c>
       <c r="R22">
-        <v>0.02000000000000002</v>
+        <v>0.01999999999999996</v>
       </c>
       <c r="S22">
-        <v>0.02000000000000002</v>
+        <v>0.01999999999999996</v>
       </c>
       <c r="T22">
         <v>1.1</v>
@@ -2478,9 +2463,6 @@
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="I25">
-        <v>-2.2</v>
-      </c>
       <c r="J25">
         <v>0.09999999999999987</v>
       </c>
@@ -2592,7 +2574,7 @@
         <v>2.6</v>
       </c>
       <c r="V26">
-        <v>0.8759999999999999</v>
+        <v>0.876</v>
       </c>
       <c r="W26">
         <v>0.9</v>
@@ -2760,7 +2742,7 @@
         <v>2.4</v>
       </c>
       <c r="V29">
-        <v>0.9470000000000001</v>
+        <v>0.947</v>
       </c>
       <c r="W29">
         <v>1.1</v>
@@ -2797,9 +2779,6 @@
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="I30">
-        <v>-0.7000000000000028</v>
-      </c>
       <c r="J30">
         <v>0.1999999999999993</v>
       </c>
@@ -2807,7 +2786,7 @@
         <v>-0.09999999999999964</v>
       </c>
       <c r="L30">
-        <v>0.03100000000000003</v>
+        <v>0.03099999999999997</v>
       </c>
       <c r="P30">
         <v>0.2999999999999998</v>
@@ -2828,7 +2807,7 @@
         <v>0.2999999999999998</v>
       </c>
       <c r="V30">
-        <v>0.08500000000000008</v>
+        <v>0.08499999999999996</v>
       </c>
       <c r="W30">
         <v>0.2000000000000001</v>
@@ -3127,9 +3106,6 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="I4">
-        <v>-158</v>
-      </c>
       <c r="J4">
         <v>6.5</v>
       </c>
@@ -3352,9 +3328,6 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="I7">
-        <v>-777</v>
-      </c>
       <c r="J7">
         <v>1</v>
       </c>
@@ -3362,7 +3335,7 @@
         <v>0.09999999999999787</v>
       </c>
       <c r="L7">
-        <v>0.04800000000000004</v>
+        <v>0.04799999999999999</v>
       </c>
       <c r="P7">
         <v>1</v>
@@ -3371,7 +3344,7 @@
         <v>0.09999999999999787</v>
       </c>
       <c r="R7">
-        <v>0.04800000000000004</v>
+        <v>0.04799999999999999</v>
       </c>
       <c r="S7">
         <v>0.5</v>
@@ -3543,7 +3516,7 @@
         <v>4.1</v>
       </c>
       <c r="U9">
-        <v>0.8240000000000001</v>
+        <v>0.824</v>
       </c>
       <c r="V9">
         <v>1.4</v>
@@ -3746,9 +3719,6 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="I12">
-        <v>-1442</v>
-      </c>
       <c r="J12">
         <v>-0.2000000000000011</v>
       </c>
@@ -3756,7 +3726,7 @@
         <v>-0.5</v>
       </c>
       <c r="L12">
-        <v>0.004000000000000059</v>
+        <v>0.004000000000000004</v>
       </c>
       <c r="P12">
         <v>-0.2000000000000011</v>
@@ -3765,7 +3735,7 @@
         <v>-0.5</v>
       </c>
       <c r="R12">
-        <v>0.004000000000000059</v>
+        <v>0.004000000000000004</v>
       </c>
       <c r="S12">
         <v>0.2999999999999998</v>
@@ -4047,7 +4017,7 @@
         <v>3</v>
       </c>
       <c r="U15">
-        <v>0.8759999999999999</v>
+        <v>0.876</v>
       </c>
       <c r="V15">
         <v>1</v>
@@ -4252,9 +4222,6 @@
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="I19">
-        <v>-736</v>
-      </c>
       <c r="J19">
         <v>1.5</v>
       </c>
@@ -4262,7 +4229,7 @@
         <v>2.199999999999999</v>
       </c>
       <c r="L19">
-        <v>0.03500000000000003</v>
+        <v>0.03499999999999998</v>
       </c>
       <c r="P19">
         <v>1.6</v>
@@ -4271,7 +4238,7 @@
         <v>2.5</v>
       </c>
       <c r="R19">
-        <v>0.02700000000000002</v>
+        <v>0.02699999999999997</v>
       </c>
       <c r="S19">
         <v>0</v>
@@ -4468,9 +4435,6 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="I22">
-        <v>-1887</v>
-      </c>
       <c r="J22">
         <v>0.7000000000000011</v>
       </c>
@@ -4478,7 +4442,7 @@
         <v>0.5999999999999979</v>
       </c>
       <c r="L22">
-        <v>0.02000000000000002</v>
+        <v>0.01999999999999996</v>
       </c>
       <c r="P22">
         <v>0.7000000000000011</v>
@@ -4487,7 +4451,7 @@
         <v>0.5999999999999979</v>
       </c>
       <c r="R22">
-        <v>0.02000000000000002</v>
+        <v>0.01999999999999996</v>
       </c>
       <c r="S22">
         <v>0.7999999999999998</v>
@@ -4678,9 +4642,6 @@
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="I25">
-        <v>-158</v>
-      </c>
       <c r="J25">
         <v>6.5</v>
       </c>
@@ -4786,7 +4747,7 @@
         <v>3</v>
       </c>
       <c r="U26">
-        <v>0.8759999999999999</v>
+        <v>0.876</v>
       </c>
       <c r="V26">
         <v>1</v>
@@ -4948,7 +4909,7 @@
         <v>4.4</v>
       </c>
       <c r="U29">
-        <v>0.9470000000000001</v>
+        <v>0.947</v>
       </c>
       <c r="V29">
         <v>2</v>
@@ -4985,9 +4946,6 @@
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="I30">
-        <v>-4499</v>
-      </c>
       <c r="J30">
         <v>0.7999999999999998</v>
       </c>
@@ -4995,7 +4953,7 @@
         <v>0.5</v>
       </c>
       <c r="L30">
-        <v>0.03100000000000003</v>
+        <v>0.03099999999999997</v>
       </c>
       <c r="P30">
         <v>1</v>
@@ -5013,7 +4971,7 @@
         <v>0.6000000000000005</v>
       </c>
       <c r="U30">
-        <v>0.08500000000000008</v>
+        <v>0.08499999999999996</v>
       </c>
       <c r="V30">
         <v>0.3999999999999999</v>
@@ -5325,9 +5283,6 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="I4">
-        <v>-158</v>
-      </c>
       <c r="J4">
         <v>8.100000000000001</v>
       </c>
@@ -5565,9 +5520,6 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="I7">
-        <v>-777</v>
-      </c>
       <c r="J7">
         <v>1.299999999999999</v>
       </c>
@@ -5575,7 +5527,7 @@
         <v>0.3000000000000007</v>
       </c>
       <c r="L7">
-        <v>0.04800000000000004</v>
+        <v>0.04799999999999999</v>
       </c>
       <c r="P7">
         <v>1.299999999999999</v>
@@ -5584,7 +5536,7 @@
         <v>0.3000000000000007</v>
       </c>
       <c r="R7">
-        <v>0.04800000000000004</v>
+        <v>0.04799999999999999</v>
       </c>
       <c r="S7">
         <v>0.6999999999999993</v>
@@ -5768,7 +5720,7 @@
         <v>5.3</v>
       </c>
       <c r="U9">
-        <v>0.8240000000000001</v>
+        <v>0.824</v>
       </c>
       <c r="V9">
         <v>1.9</v>
@@ -5989,9 +5941,6 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="I12">
-        <v>-1442</v>
-      </c>
       <c r="J12">
         <v>0.6999999999999993</v>
       </c>
@@ -5999,7 +5948,7 @@
         <v>1.300000000000001</v>
       </c>
       <c r="L12">
-        <v>0.004000000000000059</v>
+        <v>0.004000000000000004</v>
       </c>
       <c r="P12">
         <v>0.6999999999999993</v>
@@ -6008,7 +5957,7 @@
         <v>1.300000000000001</v>
       </c>
       <c r="R12">
-        <v>0.004000000000000059</v>
+        <v>0.004000000000000004</v>
       </c>
       <c r="S12">
         <v>0.9000000000000004</v>
@@ -6308,7 +6257,7 @@
         <v>4.2</v>
       </c>
       <c r="U15">
-        <v>0.8759999999999999</v>
+        <v>0.876</v>
       </c>
       <c r="V15">
         <v>1.3</v>
@@ -6531,9 +6480,6 @@
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="I19">
-        <v>-736</v>
-      </c>
       <c r="J19">
         <v>2.800000000000001</v>
       </c>
@@ -6541,7 +6487,7 @@
         <v>4.400000000000002</v>
       </c>
       <c r="L19">
-        <v>0.03500000000000003</v>
+        <v>0.03499999999999998</v>
       </c>
       <c r="P19">
         <v>2.9</v>
@@ -6550,7 +6496,7 @@
         <v>4.800000000000001</v>
       </c>
       <c r="R19">
-        <v>0.02700000000000002</v>
+        <v>0.02699999999999997</v>
       </c>
       <c r="S19">
         <v>0.4000000000000004</v>
@@ -6765,9 +6711,6 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="I22">
-        <v>-1887</v>
-      </c>
       <c r="J22">
         <v>0.9000000000000004</v>
       </c>
@@ -6775,7 +6718,7 @@
         <v>0.8000000000000007</v>
       </c>
       <c r="L22">
-        <v>0.02000000000000002</v>
+        <v>0.01999999999999996</v>
       </c>
       <c r="P22">
         <v>0.9000000000000004</v>
@@ -6784,7 +6727,7 @@
         <v>0.8000000000000007</v>
       </c>
       <c r="R22">
-        <v>0.02000000000000002</v>
+        <v>0.01999999999999996</v>
       </c>
       <c r="S22">
         <v>1</v>
@@ -6987,9 +6930,6 @@
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="I25">
-        <v>-158</v>
-      </c>
       <c r="J25">
         <v>8.100000000000001</v>
       </c>
@@ -7098,7 +7038,7 @@
         <v>4.2</v>
       </c>
       <c r="U26">
-        <v>0.8759999999999999</v>
+        <v>0.876</v>
       </c>
       <c r="V26">
         <v>1.3</v>
@@ -7272,7 +7212,7 @@
         <v>6.1</v>
       </c>
       <c r="U29">
-        <v>0.9470000000000001</v>
+        <v>0.947</v>
       </c>
       <c r="V29">
         <v>2.7</v>
@@ -7315,9 +7255,6 @@
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="I30">
-        <v>-4499</v>
-      </c>
       <c r="J30">
         <v>1.6</v>
       </c>
@@ -7325,7 +7262,7 @@
         <v>1.800000000000001</v>
       </c>
       <c r="L30">
-        <v>0.03100000000000003</v>
+        <v>0.03099999999999997</v>
       </c>
       <c r="P30">
         <v>1.800000000000001</v>
@@ -7343,7 +7280,7 @@
         <v>1.1</v>
       </c>
       <c r="U30">
-        <v>0.08500000000000008</v>
+        <v>0.08499999999999996</v>
       </c>
       <c r="V30">
         <v>0.6000000000000001</v>
@@ -7648,9 +7585,6 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="H4">
-        <v>-158</v>
-      </c>
       <c r="I4">
         <v>18.1</v>
       </c>
@@ -7857,7 +7791,7 @@
         <v>0.1</v>
       </c>
       <c r="Y6">
-        <v>0.08800000000000001</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="AA6">
         <v>2.1</v>
@@ -7879,9 +7813,6 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="H7">
-        <v>-777</v>
-      </c>
       <c r="I7">
         <v>4.300000000000001</v>
       </c>
@@ -7925,7 +7856,7 @@
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>0.02400000000000001</v>
+        <v>0.02399999999999999</v>
       </c>
       <c r="AA7">
         <v>1.6</v>
@@ -8008,7 +7939,7 @@
         <v>3.3</v>
       </c>
       <c r="Y8">
-        <v>0.09300000000000001</v>
+        <v>0.093</v>
       </c>
       <c r="AA8">
         <v>2</v>
@@ -8141,7 +8072,7 @@
         <v>17.1</v>
       </c>
       <c r="J10">
-        <v>0.5379999999999999</v>
+        <v>0.538</v>
       </c>
       <c r="L10">
         <v>0.298</v>
@@ -8227,7 +8158,7 @@
         <v>21</v>
       </c>
       <c r="J11">
-        <v>0.5429999999999999</v>
+        <v>0.543</v>
       </c>
       <c r="L11">
         <v>0.248</v>
@@ -8288,14 +8219,11 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="H12">
-        <v>-1442</v>
-      </c>
       <c r="I12">
         <v>4</v>
       </c>
       <c r="J12">
-        <v>0.0149999999999999</v>
+        <v>0.01500000000000001</v>
       </c>
       <c r="L12">
         <v>0.005000000000000004</v>
@@ -8334,7 +8262,7 @@
         <v>-2.4</v>
       </c>
       <c r="Y12">
-        <v>0.08800000000000001</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="AA12">
         <v>3.1</v>
@@ -8381,7 +8309,7 @@
         <v>0.521</v>
       </c>
       <c r="K13">
-        <v>0.08900000000000001</v>
+        <v>0.089</v>
       </c>
       <c r="L13">
         <v>0.212</v>
@@ -8470,7 +8398,7 @@
         <v>0.482</v>
       </c>
       <c r="K14">
-        <v>0.05599999999999999</v>
+        <v>0.056</v>
       </c>
       <c r="L14">
         <v>0.317</v>
@@ -8598,7 +8526,7 @@
         <v>2</v>
       </c>
       <c r="Y15">
-        <v>0.05599999999999999</v>
+        <v>0.056</v>
       </c>
       <c r="AA15">
         <v>1.4</v>
@@ -8727,7 +8655,7 @@
         <v>21</v>
       </c>
       <c r="J18">
-        <v>0.5429999999999999</v>
+        <v>0.543</v>
       </c>
       <c r="L18">
         <v>0.248</v>
@@ -8788,14 +8716,11 @@
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="H19">
-        <v>-736</v>
-      </c>
       <c r="I19">
         <v>4.399999999999999</v>
       </c>
       <c r="J19">
-        <v>0.02799999999999991</v>
+        <v>0.02800000000000002</v>
       </c>
       <c r="L19">
         <v>-0.058</v>
@@ -8834,7 +8759,7 @@
         <v>-1.4</v>
       </c>
       <c r="Y19">
-        <v>0.06700000000000002</v>
+        <v>0.06699999999999999</v>
       </c>
       <c r="AA19">
         <v>2.6</v>
@@ -8911,7 +8836,7 @@
         <v>2.9</v>
       </c>
       <c r="Y20">
-        <v>0.07200000000000001</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="AA20">
         <v>1.1</v>
@@ -8991,7 +8916,7 @@
         <v>0.1</v>
       </c>
       <c r="Y21">
-        <v>0.08800000000000001</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="AA21">
         <v>2.1</v>
@@ -9013,9 +8938,6 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="H22">
-        <v>-1887</v>
-      </c>
       <c r="I22">
         <v>3.5</v>
       </c>
@@ -9226,9 +9148,6 @@
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="H25">
-        <v>-158</v>
-      </c>
       <c r="I25">
         <v>18.1</v>
       </c>
@@ -9346,7 +9265,7 @@
         <v>2</v>
       </c>
       <c r="Y26">
-        <v>0.05599999999999999</v>
+        <v>0.056</v>
       </c>
       <c r="AA26">
         <v>1.4</v>
@@ -9469,7 +9388,7 @@
         <v>21.3</v>
       </c>
       <c r="J29">
-        <v>0.5489999999999999</v>
+        <v>0.549</v>
       </c>
       <c r="L29">
         <v>0.252</v>
@@ -9530,14 +9449,11 @@
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="H30">
-        <v>-4499</v>
-      </c>
       <c r="I30">
         <v>5.100000000000001</v>
       </c>
       <c r="J30">
-        <v>0.03799999999999992</v>
+        <v>0.03800000000000003</v>
       </c>
       <c r="L30">
         <v>0.029</v>

--- a/output/furlote01.xlsx
+++ b/output/furlote01.xlsx
@@ -25,7 +25,7 @@
     <t>Age</t>
   </si>
   <si>
-    <t>Team</t>
+    <t>Tm</t>
   </si>
   <si>
     <t>Lg</t>
@@ -1886,9 +1886,6 @@
       <c r="N17">
         <v>0.4</v>
       </c>
-      <c r="O17">
-        <v>0.111</v>
-      </c>
       <c r="P17">
         <v>3.6</v>
       </c>
@@ -2642,9 +2639,6 @@
       </c>
       <c r="N28">
         <v>1.1</v>
-      </c>
-      <c r="O28">
-        <v>0.293</v>
       </c>
       <c r="P28">
         <v>4.3</v>
@@ -4089,9 +4083,6 @@
       <c r="N17">
         <v>0.8</v>
       </c>
-      <c r="O17">
-        <v>0.111</v>
-      </c>
       <c r="P17">
         <v>6.5</v>
       </c>
@@ -4815,9 +4806,6 @@
       </c>
       <c r="N28">
         <v>1.4</v>
-      </c>
-      <c r="O28">
-        <v>0.293</v>
       </c>
       <c r="P28">
         <v>7.6</v>
@@ -6335,9 +6323,6 @@
       <c r="N17">
         <v>1.1</v>
       </c>
-      <c r="O17">
-        <v>0.111</v>
-      </c>
       <c r="P17">
         <v>8.6</v>
       </c>
@@ -7112,9 +7097,6 @@
       </c>
       <c r="N28">
         <v>1.9</v>
-      </c>
-      <c r="O28">
-        <v>0.293</v>
       </c>
       <c r="P28">
         <v>10.1</v>
@@ -7794,13 +7776,13 @@
         <v>0.08799999999999999</v>
       </c>
       <c r="AA6">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="AB6">
-        <v>-1.8</v>
+        <v>-1.9</v>
       </c>
       <c r="AC6">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -7859,13 +7841,13 @@
         <v>0.02399999999999999</v>
       </c>
       <c r="AA7">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AB7">
-        <v>-0.6000000000000001</v>
+        <v>-0.7</v>
       </c>
       <c r="AC7">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AD7">
         <v>-0.3</v>
@@ -8919,13 +8901,13 @@
         <v>0.08799999999999999</v>
       </c>
       <c r="AA21">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="AB21">
-        <v>-1.8</v>
+        <v>-1.9</v>
       </c>
       <c r="AC21">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="AD21">
         <v>0</v>
@@ -8984,13 +8966,13 @@
         <v>0.016</v>
       </c>
       <c r="AA22">
-        <v>1</v>
+        <v>0.7999999999999998</v>
       </c>
       <c r="AB22">
-        <v>-0.5</v>
+        <v>-0.5999999999999999</v>
       </c>
       <c r="AC22">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="AD22">
         <v>-0.9</v>
